--- a/1_Case and close contact list_Updates_2August.xlsx
+++ b/1_Case and close contact list_Updates_2August.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/covid_vietnam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D898363-769C-D24C-8EEA-81E62B141A30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A36E10-BB01-4847-89AF-6C2A0E34CA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24280" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5972,22 +5972,52 @@
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6000,12 +6030,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6024,30 +6048,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6393,14 +6393,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L242" activeCellId="1" sqref="L98:L231 L242:L254"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14"/>
@@ -6431,26 +6430,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="249" t="s">
         <v>813</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="237"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
       <c r="S1" s="100"/>
       <c r="T1" s="100"/>
       <c r="U1" s="175"/>
@@ -6470,202 +6469,202 @@
       <c r="A2" s="98"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="251" t="s">
         <v>582</v>
       </c>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="241" t="s">
         <v>583</v>
       </c>
-      <c r="C3" s="242" t="s">
+      <c r="C3" s="241" t="s">
         <v>584</v>
       </c>
-      <c r="D3" s="242" t="s">
+      <c r="D3" s="241" t="s">
         <v>585</v>
       </c>
-      <c r="E3" s="243" t="s">
+      <c r="E3" s="253" t="s">
         <v>588</v>
       </c>
-      <c r="F3" s="244"/>
+      <c r="F3" s="254"/>
       <c r="G3" s="194"/>
-      <c r="H3" s="251" t="s">
+      <c r="H3" s="259" t="s">
         <v>707</v>
       </c>
-      <c r="I3" s="242" t="s">
+      <c r="I3" s="241" t="s">
         <v>716</v>
       </c>
-      <c r="J3" s="253" t="s">
+      <c r="J3" s="261" t="s">
         <v>717</v>
       </c>
-      <c r="K3" s="242" t="s">
+      <c r="K3" s="241" t="s">
         <v>755</v>
       </c>
-      <c r="L3" s="249" t="s">
+      <c r="L3" s="257" t="s">
         <v>987</v>
       </c>
-      <c r="M3" s="242" t="s">
+      <c r="M3" s="241" t="s">
         <v>756</v>
       </c>
-      <c r="N3" s="242" t="s">
+      <c r="N3" s="241" t="s">
         <v>767</v>
       </c>
       <c r="O3" s="235"/>
       <c r="P3" s="217"/>
       <c r="Q3" s="217"/>
-      <c r="R3" s="242" t="s">
+      <c r="R3" s="241" t="s">
         <v>768</v>
       </c>
-      <c r="S3" s="242" t="s">
+      <c r="S3" s="241" t="s">
         <v>769</v>
       </c>
-      <c r="T3" s="242" t="s">
+      <c r="T3" s="241" t="s">
         <v>770</v>
       </c>
-      <c r="U3" s="242" t="s">
+      <c r="U3" s="241" t="s">
         <v>771</v>
       </c>
-      <c r="V3" s="242" t="s">
+      <c r="V3" s="241" t="s">
         <v>774</v>
       </c>
-      <c r="W3" s="242" t="s">
+      <c r="W3" s="241" t="s">
         <v>802</v>
       </c>
-      <c r="X3" s="242" t="s">
+      <c r="X3" s="241" t="s">
         <v>803</v>
       </c>
-      <c r="Y3" s="242" t="s">
+      <c r="Y3" s="241" t="s">
         <v>804</v>
       </c>
-      <c r="Z3" s="242" t="s">
+      <c r="Z3" s="241" t="s">
         <v>1263</v>
       </c>
-      <c r="AA3" s="242" t="s">
+      <c r="AA3" s="241" t="s">
         <v>805</v>
       </c>
-      <c r="AB3" s="242" t="s">
+      <c r="AB3" s="241" t="s">
         <v>806</v>
       </c>
-      <c r="AC3" s="242" t="s">
+      <c r="AC3" s="241" t="s">
         <v>807</v>
       </c>
-      <c r="AD3" s="242" t="s">
+      <c r="AD3" s="241" t="s">
         <v>808</v>
       </c>
-      <c r="AE3" s="242"/>
-      <c r="AF3" s="242"/>
+      <c r="AE3" s="241"/>
+      <c r="AF3" s="241"/>
     </row>
     <row r="4" spans="1:32" ht="66" customHeight="1">
-      <c r="A4" s="241"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="246"/>
+      <c r="A4" s="252"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="256"/>
       <c r="G4" s="195"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="254"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="250"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="240"/>
       <c r="O4" s="234"/>
       <c r="P4" s="216"/>
       <c r="Q4" s="216"/>
-      <c r="R4" s="239"/>
-      <c r="S4" s="239"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="239"/>
-      <c r="V4" s="239"/>
-      <c r="W4" s="239"/>
-      <c r="X4" s="239"/>
-      <c r="Y4" s="239"/>
-      <c r="Z4" s="239"/>
-      <c r="AA4" s="239"/>
-      <c r="AB4" s="239"/>
-      <c r="AC4" s="239"/>
-      <c r="AD4" s="239" t="s">
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="240"/>
+      <c r="V4" s="240"/>
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="240"/>
+      <c r="Z4" s="240"/>
+      <c r="AA4" s="240"/>
+      <c r="AB4" s="240"/>
+      <c r="AC4" s="240"/>
+      <c r="AD4" s="240" t="s">
         <v>809</v>
       </c>
-      <c r="AE4" s="239" t="s">
+      <c r="AE4" s="240" t="s">
         <v>810</v>
       </c>
-      <c r="AF4" s="239" t="s">
+      <c r="AF4" s="240" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1">
-      <c r="A5" s="241"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="247" t="s">
+      <c r="A5" s="252"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="237" t="s">
         <v>589</v>
       </c>
-      <c r="F5" s="247" t="s">
+      <c r="F5" s="237" t="s">
         <v>590</v>
       </c>
-      <c r="G5" s="247" t="s">
+      <c r="G5" s="237" t="s">
         <v>1351</v>
       </c>
-      <c r="H5" s="252"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="240"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="240"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="240"/>
+      <c r="N5" s="240"/>
       <c r="O5" s="234"/>
       <c r="P5" s="216"/>
       <c r="Q5" s="216"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="239"/>
-      <c r="W5" s="239"/>
-      <c r="X5" s="239"/>
-      <c r="Y5" s="239"/>
-      <c r="Z5" s="239"/>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="239"/>
-      <c r="AC5" s="239"/>
-      <c r="AD5" s="239"/>
-      <c r="AE5" s="239"/>
-      <c r="AF5" s="239"/>
+      <c r="R5" s="240"/>
+      <c r="S5" s="240"/>
+      <c r="T5" s="240"/>
+      <c r="U5" s="240"/>
+      <c r="V5" s="240"/>
+      <c r="W5" s="240"/>
+      <c r="X5" s="240"/>
+      <c r="Y5" s="240"/>
+      <c r="Z5" s="240"/>
+      <c r="AA5" s="240"/>
+      <c r="AB5" s="240"/>
+      <c r="AC5" s="240"/>
+      <c r="AD5" s="240"/>
+      <c r="AE5" s="240"/>
+      <c r="AF5" s="240"/>
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A6" s="241"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="252"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="248"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
+      <c r="A6" s="252"/>
+      <c r="B6" s="240"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="240"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="240"/>
+      <c r="N6" s="240"/>
       <c r="O6" s="234"/>
       <c r="P6" s="216"/>
       <c r="Q6" s="216"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="239"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="239"/>
-      <c r="X6" s="239"/>
-      <c r="Y6" s="239"/>
-      <c r="Z6" s="239"/>
-      <c r="AA6" s="239"/>
-      <c r="AB6" s="239"/>
-      <c r="AC6" s="239"/>
-      <c r="AD6" s="239"/>
-      <c r="AE6" s="239"/>
-      <c r="AF6" s="239"/>
+      <c r="R6" s="240"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="240"/>
+      <c r="U6" s="240"/>
+      <c r="V6" s="240"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="240"/>
+      <c r="Y6" s="240"/>
+      <c r="Z6" s="240"/>
+      <c r="AA6" s="240"/>
+      <c r="AB6" s="240"/>
+      <c r="AC6" s="240"/>
+      <c r="AD6" s="240"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="240"/>
     </row>
     <row r="7" spans="1:32" ht="26.25" customHeight="1">
       <c r="A7" s="148" t="s">
@@ -6763,7 +6762,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="28.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:32" ht="28.5" customHeight="1">
       <c r="A8" s="102">
         <v>1</v>
       </c>
@@ -6843,11 +6842,11 @@
       <c r="AC8" s="110">
         <v>43891</v>
       </c>
-      <c r="AD8" s="255">
+      <c r="AD8" s="244">
         <v>28</v>
       </c>
       <c r="AE8" s="196"/>
-      <c r="AF8" s="255">
+      <c r="AF8" s="244">
         <v>0</v>
       </c>
     </row>
@@ -6929,11 +6928,11 @@
       <c r="AC9" s="110">
         <v>43891</v>
       </c>
-      <c r="AD9" s="256"/>
+      <c r="AD9" s="245"/>
       <c r="AE9" s="196"/>
-      <c r="AF9" s="256"/>
-    </row>
-    <row r="10" spans="1:32" ht="16" hidden="1">
+      <c r="AF9" s="245"/>
+    </row>
+    <row r="10" spans="1:32" ht="16">
       <c r="A10" s="102">
         <v>3</v>
       </c>
@@ -7017,7 +7016,7 @@
       <c r="AE10" s="111"/>
       <c r="AF10" s="111"/>
     </row>
-    <row r="11" spans="1:32" ht="16" hidden="1">
+    <row r="11" spans="1:32" ht="16">
       <c r="A11" s="102">
         <v>4</v>
       </c>
@@ -7101,7 +7100,7 @@
       <c r="AE11" s="111"/>
       <c r="AF11" s="111"/>
     </row>
-    <row r="12" spans="1:32" ht="30" hidden="1" customHeight="1">
+    <row r="12" spans="1:32" ht="30" customHeight="1">
       <c r="A12" s="102">
         <v>5</v>
       </c>
@@ -7186,7 +7185,7 @@
       <c r="AE12" s="111"/>
       <c r="AF12" s="111"/>
     </row>
-    <row r="13" spans="1:32" ht="16" hidden="1">
+    <row r="13" spans="1:32" ht="16">
       <c r="A13" s="102">
         <v>6</v>
       </c>
@@ -7273,7 +7272,7 @@
       <c r="AE13" s="111"/>
       <c r="AF13" s="111"/>
     </row>
-    <row r="14" spans="1:32" ht="16" hidden="1">
+    <row r="14" spans="1:32" ht="16">
       <c r="A14" s="102">
         <v>7</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" hidden="1">
+    <row r="15" spans="1:32" ht="16">
       <c r="A15" s="102">
         <v>8</v>
       </c>
@@ -7453,7 +7452,7 @@
       <c r="AE15" s="106"/>
       <c r="AF15" s="106"/>
     </row>
-    <row r="16" spans="1:32" ht="16" hidden="1">
+    <row r="16" spans="1:32" ht="16">
       <c r="A16" s="102">
         <v>9</v>
       </c>
@@ -7540,7 +7539,7 @@
       <c r="AE16" s="106"/>
       <c r="AF16" s="106"/>
     </row>
-    <row r="17" spans="1:32" ht="16" hidden="1">
+    <row r="17" spans="1:32" ht="16">
       <c r="A17" s="102">
         <v>10</v>
       </c>
@@ -7629,7 +7628,7 @@
       <c r="AE17" s="106"/>
       <c r="AF17" s="106"/>
     </row>
-    <row r="18" spans="1:32" ht="32" hidden="1">
+    <row r="18" spans="1:32" ht="32">
       <c r="A18" s="102">
         <v>11</v>
       </c>
@@ -7716,7 +7715,7 @@
       <c r="AE18" s="106"/>
       <c r="AF18" s="106"/>
     </row>
-    <row r="19" spans="1:32" ht="16" hidden="1">
+    <row r="19" spans="1:32" ht="16">
       <c r="A19" s="102">
         <v>12</v>
       </c>
@@ -7803,7 +7802,7 @@
       <c r="AE19" s="106"/>
       <c r="AF19" s="106"/>
     </row>
-    <row r="20" spans="1:32" ht="16" hidden="1">
+    <row r="20" spans="1:32" ht="16">
       <c r="A20" s="102">
         <v>13</v>
       </c>
@@ -7890,7 +7889,7 @@
       <c r="AE20" s="106"/>
       <c r="AF20" s="106"/>
     </row>
-    <row r="21" spans="1:32" ht="16" hidden="1">
+    <row r="21" spans="1:32" ht="16">
       <c r="A21" s="102">
         <v>14</v>
       </c>
@@ -7975,7 +7974,7 @@
       <c r="AE21" s="106"/>
       <c r="AF21" s="106"/>
     </row>
-    <row r="22" spans="1:32" ht="16" hidden="1">
+    <row r="22" spans="1:32" ht="16">
       <c r="A22" s="102">
         <v>15</v>
       </c>
@@ -8062,7 +8061,7 @@
       <c r="AE22" s="106"/>
       <c r="AF22" s="106"/>
     </row>
-    <row r="23" spans="1:32" ht="16" hidden="1">
+    <row r="23" spans="1:32" ht="16">
       <c r="A23" s="102">
         <v>16</v>
       </c>
@@ -8149,7 +8148,7 @@
       <c r="AE23" s="106"/>
       <c r="AF23" s="106"/>
     </row>
-    <row r="24" spans="1:32" ht="16" hidden="1">
+    <row r="24" spans="1:32" ht="16">
       <c r="A24" s="102">
         <v>17</v>
       </c>
@@ -8240,7 +8239,7 @@
       <c r="AE24" s="106"/>
       <c r="AF24" s="106"/>
     </row>
-    <row r="25" spans="1:32" ht="16" hidden="1">
+    <row r="25" spans="1:32" ht="16">
       <c r="A25" s="102">
         <v>18</v>
       </c>
@@ -8327,7 +8326,7 @@
       <c r="AE25" s="106"/>
       <c r="AF25" s="106"/>
     </row>
-    <row r="26" spans="1:32" ht="16" hidden="1">
+    <row r="26" spans="1:32" ht="16">
       <c r="A26" s="102">
         <v>19</v>
       </c>
@@ -8414,7 +8413,7 @@
       <c r="AE26" s="106"/>
       <c r="AF26" s="106"/>
     </row>
-    <row r="27" spans="1:32" ht="16" hidden="1">
+    <row r="27" spans="1:32" ht="16">
       <c r="A27" s="102">
         <v>20</v>
       </c>
@@ -8498,7 +8497,7 @@
       <c r="AE27" s="106"/>
       <c r="AF27" s="106"/>
     </row>
-    <row r="28" spans="1:32" ht="16" hidden="1">
+    <row r="28" spans="1:32" ht="16">
       <c r="A28" s="102">
         <v>21</v>
       </c>
@@ -8587,7 +8586,7 @@
       <c r="AE28" s="106"/>
       <c r="AF28" s="106"/>
     </row>
-    <row r="29" spans="1:32" ht="16" hidden="1">
+    <row r="29" spans="1:32" ht="16">
       <c r="A29" s="102">
         <v>22</v>
       </c>
@@ -8672,15 +8671,15 @@
         <v>772</v>
       </c>
       <c r="AC29" s="118"/>
-      <c r="AD29" s="262">
+      <c r="AD29" s="248">
         <v>144</v>
       </c>
-      <c r="AE29" s="261">
+      <c r="AE29" s="247">
         <v>133</v>
       </c>
       <c r="AF29" s="106"/>
     </row>
-    <row r="30" spans="1:32" ht="16" hidden="1">
+    <row r="30" spans="1:32" ht="16">
       <c r="A30" s="102">
         <v>23</v>
       </c>
@@ -8755,11 +8754,11 @@
       <c r="AC30" s="110">
         <v>43917</v>
       </c>
-      <c r="AD30" s="262"/>
-      <c r="AE30" s="261"/>
+      <c r="AD30" s="248"/>
+      <c r="AE30" s="247"/>
       <c r="AF30" s="106"/>
     </row>
-    <row r="31" spans="1:32" ht="16" hidden="1">
+    <row r="31" spans="1:32" ht="16">
       <c r="A31" s="102">
         <v>24</v>
       </c>
@@ -8838,7 +8837,7 @@
       <c r="AE31" s="106"/>
       <c r="AF31" s="106"/>
     </row>
-    <row r="32" spans="1:32" ht="16" hidden="1">
+    <row r="32" spans="1:32" ht="16">
       <c r="A32" s="102">
         <v>25</v>
       </c>
@@ -8920,7 +8919,7 @@
       <c r="AE32" s="106"/>
       <c r="AF32" s="106"/>
     </row>
-    <row r="33" spans="1:32" ht="16" hidden="1">
+    <row r="33" spans="1:32" ht="16">
       <c r="A33" s="102">
         <v>26</v>
       </c>
@@ -9007,7 +9006,7 @@
       <c r="AE33" s="106"/>
       <c r="AF33" s="106"/>
     </row>
-    <row r="34" spans="1:32" ht="16" hidden="1">
+    <row r="34" spans="1:32" ht="16">
       <c r="A34" s="102">
         <v>27</v>
       </c>
@@ -9096,7 +9095,7 @@
       <c r="AE34" s="106"/>
       <c r="AF34" s="106"/>
     </row>
-    <row r="35" spans="1:32" ht="16" hidden="1">
+    <row r="35" spans="1:32" ht="16">
       <c r="A35" s="102">
         <v>28</v>
       </c>
@@ -9185,7 +9184,7 @@
       <c r="AE35" s="106"/>
       <c r="AF35" s="106"/>
     </row>
-    <row r="36" spans="1:32" ht="16" hidden="1">
+    <row r="36" spans="1:32" ht="16">
       <c r="A36" s="102">
         <v>29</v>
       </c>
@@ -9270,7 +9269,7 @@
       <c r="AE36" s="106"/>
       <c r="AF36" s="106"/>
     </row>
-    <row r="37" spans="1:32" ht="16" hidden="1">
+    <row r="37" spans="1:32" ht="16">
       <c r="A37" s="102">
         <v>30</v>
       </c>
@@ -9354,7 +9353,7 @@
       <c r="AE37" s="106"/>
       <c r="AF37" s="106"/>
     </row>
-    <row r="38" spans="1:32" ht="16" hidden="1">
+    <row r="38" spans="1:32" ht="16">
       <c r="A38" s="102">
         <v>31</v>
       </c>
@@ -9438,7 +9437,7 @@
       <c r="AE38" s="106"/>
       <c r="AF38" s="106"/>
     </row>
-    <row r="39" spans="1:32" ht="16" hidden="1">
+    <row r="39" spans="1:32" ht="16">
       <c r="A39" s="102">
         <v>32</v>
       </c>
@@ -9526,7 +9525,7 @@
       <c r="AE39" s="106"/>
       <c r="AF39" s="106"/>
     </row>
-    <row r="40" spans="1:32" ht="16" hidden="1">
+    <row r="40" spans="1:32" ht="16">
       <c r="A40" s="102">
         <v>33</v>
       </c>
@@ -9603,7 +9602,7 @@
       <c r="AE40" s="106"/>
       <c r="AF40" s="106"/>
     </row>
-    <row r="41" spans="1:32" ht="16" hidden="1">
+    <row r="41" spans="1:32" ht="16">
       <c r="A41" s="102">
         <v>34</v>
       </c>
@@ -9691,7 +9690,7 @@
       <c r="AE41" s="106"/>
       <c r="AF41" s="106"/>
     </row>
-    <row r="42" spans="1:32" ht="16" hidden="1">
+    <row r="42" spans="1:32" ht="16">
       <c r="A42" s="102">
         <v>35</v>
       </c>
@@ -9774,7 +9773,7 @@
       </c>
       <c r="AF42" s="106"/>
     </row>
-    <row r="43" spans="1:32" ht="16" hidden="1">
+    <row r="43" spans="1:32" ht="16">
       <c r="A43" s="102">
         <v>36</v>
       </c>
@@ -9858,7 +9857,7 @@
       <c r="AE43" s="106"/>
       <c r="AF43" s="106"/>
     </row>
-    <row r="44" spans="1:32" ht="16" hidden="1">
+    <row r="44" spans="1:32" ht="16">
       <c r="A44" s="102">
         <v>37</v>
       </c>
@@ -9940,7 +9939,7 @@
       <c r="AE44" s="106"/>
       <c r="AF44" s="106"/>
     </row>
-    <row r="45" spans="1:32" ht="16" hidden="1">
+    <row r="45" spans="1:32" ht="16">
       <c r="A45" s="102">
         <v>38</v>
       </c>
@@ -10019,7 +10018,7 @@
       <c r="AE45" s="106"/>
       <c r="AF45" s="106"/>
     </row>
-    <row r="46" spans="1:32" ht="16" hidden="1">
+    <row r="46" spans="1:32" ht="16">
       <c r="A46" s="102">
         <v>39</v>
       </c>
@@ -10109,7 +10108,7 @@
       <c r="AE46" s="106"/>
       <c r="AF46" s="106"/>
     </row>
-    <row r="47" spans="1:32" ht="16" hidden="1">
+    <row r="47" spans="1:32" ht="16">
       <c r="A47" s="102">
         <v>40</v>
       </c>
@@ -10188,7 +10187,7 @@
       <c r="AE47" s="106"/>
       <c r="AF47" s="106"/>
     </row>
-    <row r="48" spans="1:32" ht="16" hidden="1">
+    <row r="48" spans="1:32" ht="16">
       <c r="A48" s="102">
         <v>41</v>
       </c>
@@ -10272,7 +10271,7 @@
       <c r="AE48" s="106"/>
       <c r="AF48" s="106"/>
     </row>
-    <row r="49" spans="1:32" ht="16" hidden="1">
+    <row r="49" spans="1:32" ht="16">
       <c r="A49" s="102">
         <v>42</v>
       </c>
@@ -10351,7 +10350,7 @@
       <c r="AE49" s="106"/>
       <c r="AF49" s="106"/>
     </row>
-    <row r="50" spans="1:32" ht="16" hidden="1">
+    <row r="50" spans="1:32" ht="16">
       <c r="A50" s="102">
         <v>43</v>
       </c>
@@ -10433,7 +10432,7 @@
       <c r="AE50" s="106"/>
       <c r="AF50" s="106"/>
     </row>
-    <row r="51" spans="1:32" ht="16" hidden="1">
+    <row r="51" spans="1:32" ht="16">
       <c r="A51" s="102">
         <v>44</v>
       </c>
@@ -10607,7 +10606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="16" hidden="1">
+    <row r="53" spans="1:32" ht="16">
       <c r="A53" s="102">
         <v>46</v>
       </c>
@@ -10696,7 +10695,7 @@
       <c r="AE53" s="106"/>
       <c r="AF53" s="106"/>
     </row>
-    <row r="54" spans="1:32" ht="16" hidden="1">
+    <row r="54" spans="1:32" ht="16">
       <c r="A54" s="102">
         <v>47</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="16" hidden="1">
+    <row r="56" spans="1:32" ht="16">
       <c r="A56" s="102">
         <v>49</v>
       </c>
@@ -10955,7 +10954,7 @@
       <c r="AE56" s="106"/>
       <c r="AF56" s="106"/>
     </row>
-    <row r="57" spans="1:32" ht="16" hidden="1">
+    <row r="57" spans="1:32" ht="16">
       <c r="A57" s="102">
         <v>50</v>
       </c>
@@ -11037,7 +11036,7 @@
       <c r="AE57" s="106"/>
       <c r="AF57" s="106"/>
     </row>
-    <row r="58" spans="1:32" ht="16" hidden="1">
+    <row r="58" spans="1:32" ht="16">
       <c r="A58" s="102">
         <v>51</v>
       </c>
@@ -11128,7 +11127,7 @@
       <c r="AE58" s="106"/>
       <c r="AF58" s="106"/>
     </row>
-    <row r="59" spans="1:32" ht="15" hidden="1">
+    <row r="59" spans="1:32" ht="15">
       <c r="A59" s="102">
         <v>52</v>
       </c>
@@ -11203,7 +11202,7 @@
       <c r="AE59" s="106"/>
       <c r="AF59" s="106"/>
     </row>
-    <row r="60" spans="1:32" ht="16" hidden="1">
+    <row r="60" spans="1:32" ht="16">
       <c r="A60" s="102">
         <v>53</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="16" hidden="1">
+    <row r="61" spans="1:32" ht="16">
       <c r="A61" s="102">
         <v>54</v>
       </c>
@@ -11379,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="15" hidden="1">
+    <row r="62" spans="1:32" ht="15">
       <c r="A62" s="102">
         <v>55</v>
       </c>
@@ -11460,7 +11459,7 @@
       <c r="AE62" s="106"/>
       <c r="AF62" s="106"/>
     </row>
-    <row r="63" spans="1:32" ht="16" hidden="1">
+    <row r="63" spans="1:32" ht="16">
       <c r="A63" s="102">
         <v>56</v>
       </c>
@@ -11547,7 +11546,7 @@
       <c r="AE63" s="106"/>
       <c r="AF63" s="106"/>
     </row>
-    <row r="64" spans="1:32" ht="16" hidden="1">
+    <row r="64" spans="1:32" ht="16">
       <c r="A64" s="102">
         <v>57</v>
       </c>
@@ -11633,7 +11632,7 @@
       <c r="AE64" s="106"/>
       <c r="AF64" s="106"/>
     </row>
-    <row r="65" spans="1:32" ht="16" hidden="1">
+    <row r="65" spans="1:32" ht="16">
       <c r="A65" s="102">
         <v>58</v>
       </c>
@@ -11720,7 +11719,7 @@
       <c r="AE65" s="106"/>
       <c r="AF65" s="106"/>
     </row>
-    <row r="66" spans="1:32" ht="16" hidden="1">
+    <row r="66" spans="1:32" ht="16">
       <c r="A66" s="102">
         <v>59</v>
       </c>
@@ -11809,7 +11808,7 @@
       <c r="AE66" s="106"/>
       <c r="AF66" s="106"/>
     </row>
-    <row r="67" spans="1:32" ht="16" hidden="1">
+    <row r="67" spans="1:32" ht="16">
       <c r="A67" s="102">
         <v>60</v>
       </c>
@@ -11896,7 +11895,7 @@
       <c r="AE67" s="106"/>
       <c r="AF67" s="106"/>
     </row>
-    <row r="68" spans="1:32" ht="16" hidden="1">
+    <row r="68" spans="1:32" ht="16">
       <c r="A68" s="102">
         <v>61</v>
       </c>
@@ -11980,7 +11979,7 @@
       <c r="AE68" s="106"/>
       <c r="AF68" s="106"/>
     </row>
-    <row r="69" spans="1:32" ht="16" hidden="1">
+    <row r="69" spans="1:32" ht="16">
       <c r="A69" s="102">
         <v>62</v>
       </c>
@@ -12067,7 +12066,7 @@
       <c r="AE69" s="106"/>
       <c r="AF69" s="106"/>
     </row>
-    <row r="70" spans="1:32" ht="16" hidden="1">
+    <row r="70" spans="1:32" ht="16">
       <c r="A70" s="102">
         <v>63</v>
       </c>
@@ -12154,7 +12153,7 @@
       <c r="AE70" s="106"/>
       <c r="AF70" s="106"/>
     </row>
-    <row r="71" spans="1:32" ht="16" hidden="1">
+    <row r="71" spans="1:32" ht="16">
       <c r="A71" s="102">
         <v>64</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="16" hidden="1">
+    <row r="73" spans="1:32" ht="16">
       <c r="A73" s="102">
         <v>66</v>
       </c>
@@ -12412,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="16" hidden="1">
+    <row r="74" spans="1:32" ht="16">
       <c r="A74" s="102">
         <v>67</v>
       </c>
@@ -12495,7 +12494,7 @@
       <c r="AE74" s="106"/>
       <c r="AF74" s="106"/>
     </row>
-    <row r="75" spans="1:32" ht="15" hidden="1">
+    <row r="75" spans="1:32" ht="15">
       <c r="A75" s="102">
         <v>68</v>
       </c>
@@ -12570,7 +12569,7 @@
       <c r="AE75" s="106"/>
       <c r="AF75" s="106"/>
     </row>
-    <row r="76" spans="1:32" ht="16" hidden="1">
+    <row r="76" spans="1:32" ht="16">
       <c r="A76" s="102">
         <v>69</v>
       </c>
@@ -12657,7 +12656,7 @@
       <c r="AE76" s="106"/>
       <c r="AF76" s="106"/>
     </row>
-    <row r="77" spans="1:32" ht="16" hidden="1">
+    <row r="77" spans="1:32" ht="16">
       <c r="A77" s="102">
         <v>70</v>
       </c>
@@ -12746,7 +12745,7 @@
       <c r="AE77" s="106"/>
       <c r="AF77" s="106"/>
     </row>
-    <row r="78" spans="1:32" ht="16" hidden="1">
+    <row r="78" spans="1:32" ht="16">
       <c r="A78" s="102">
         <v>71</v>
       </c>
@@ -12837,7 +12836,7 @@
       <c r="AE78" s="106"/>
       <c r="AF78" s="106"/>
     </row>
-    <row r="79" spans="1:32" ht="16" hidden="1">
+    <row r="79" spans="1:32" ht="16">
       <c r="A79" s="102">
         <v>72</v>
       </c>
@@ -12924,7 +12923,7 @@
       <c r="AE79" s="106"/>
       <c r="AF79" s="106"/>
     </row>
-    <row r="80" spans="1:32" ht="16" hidden="1">
+    <row r="80" spans="1:32" ht="16">
       <c r="A80" s="102">
         <v>73</v>
       </c>
@@ -13008,7 +13007,7 @@
       <c r="AE80" s="106"/>
       <c r="AF80" s="106"/>
     </row>
-    <row r="81" spans="1:32" ht="16" hidden="1">
+    <row r="81" spans="1:32" ht="16">
       <c r="A81" s="102">
         <v>74</v>
       </c>
@@ -13097,7 +13096,7 @@
       <c r="AE81" s="106"/>
       <c r="AF81" s="106"/>
     </row>
-    <row r="82" spans="1:32" ht="16" hidden="1">
+    <row r="82" spans="1:32" ht="16">
       <c r="A82" s="102">
         <v>75</v>
       </c>
@@ -13185,7 +13184,7 @@
       <c r="AE82" s="106"/>
       <c r="AF82" s="106"/>
     </row>
-    <row r="83" spans="1:32" ht="16" hidden="1">
+    <row r="83" spans="1:32" ht="16">
       <c r="A83" s="102">
         <v>76</v>
       </c>
@@ -13276,7 +13275,7 @@
       <c r="AE83" s="106"/>
       <c r="AF83" s="106"/>
     </row>
-    <row r="84" spans="1:32" ht="16" hidden="1">
+    <row r="84" spans="1:32" ht="16">
       <c r="A84" s="102">
         <v>77</v>
       </c>
@@ -13365,7 +13364,7 @@
       <c r="AE84" s="106"/>
       <c r="AF84" s="106"/>
     </row>
-    <row r="85" spans="1:32" ht="16" hidden="1">
+    <row r="85" spans="1:32" ht="16">
       <c r="A85" s="102">
         <v>78</v>
       </c>
@@ -13452,7 +13451,7 @@
       <c r="AE85" s="106"/>
       <c r="AF85" s="106"/>
     </row>
-    <row r="86" spans="1:32" ht="16" hidden="1">
+    <row r="86" spans="1:32" ht="16">
       <c r="A86" s="102">
         <v>79</v>
       </c>
@@ -13536,17 +13535,17 @@
       <c r="AC86" s="110">
         <v>43919</v>
       </c>
-      <c r="AD86" s="258">
+      <c r="AD86" s="242">
         <v>30</v>
       </c>
-      <c r="AE86" s="258">
+      <c r="AE86" s="242">
         <v>30</v>
       </c>
-      <c r="AF86" s="258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="16" hidden="1">
+      <c r="AF86" s="242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="16">
       <c r="A87" s="102">
         <v>80</v>
       </c>
@@ -13625,11 +13624,11 @@
       <c r="AC87" s="110">
         <v>43925</v>
       </c>
-      <c r="AD87" s="259"/>
-      <c r="AE87" s="259"/>
-      <c r="AF87" s="259"/>
-    </row>
-    <row r="88" spans="1:32" ht="16" hidden="1">
+      <c r="AD87" s="243"/>
+      <c r="AE87" s="243"/>
+      <c r="AF87" s="243"/>
+    </row>
+    <row r="88" spans="1:32" ht="16">
       <c r="A88" s="102">
         <v>81</v>
       </c>
@@ -13712,7 +13711,7 @@
       <c r="AE88" s="106"/>
       <c r="AF88" s="106"/>
     </row>
-    <row r="89" spans="1:32" ht="16" hidden="1">
+    <row r="89" spans="1:32" ht="16">
       <c r="A89" s="102">
         <v>82</v>
       </c>
@@ -13800,7 +13799,7 @@
       <c r="AE89" s="106"/>
       <c r="AF89" s="106"/>
     </row>
-    <row r="90" spans="1:32" ht="16" hidden="1">
+    <row r="90" spans="1:32" ht="16">
       <c r="A90" s="102">
         <v>83</v>
       </c>
@@ -13888,7 +13887,7 @@
       <c r="AE90" s="106"/>
       <c r="AF90" s="106"/>
     </row>
-    <row r="91" spans="1:32" ht="16" hidden="1">
+    <row r="91" spans="1:32" ht="16">
       <c r="A91" s="102">
         <v>84</v>
       </c>
@@ -13977,7 +13976,7 @@
       <c r="AE91" s="106"/>
       <c r="AF91" s="106"/>
     </row>
-    <row r="92" spans="1:32" ht="16" hidden="1">
+    <row r="92" spans="1:32" ht="16">
       <c r="A92" s="102">
         <v>85</v>
       </c>
@@ -14064,7 +14063,7 @@
       <c r="AE92" s="106"/>
       <c r="AF92" s="106"/>
     </row>
-    <row r="93" spans="1:32" ht="16" hidden="1">
+    <row r="93" spans="1:32" ht="16">
       <c r="A93" s="102">
         <v>86</v>
       </c>
@@ -14154,7 +14153,7 @@
       <c r="AE93" s="106"/>
       <c r="AF93" s="106"/>
     </row>
-    <row r="94" spans="1:32" ht="16" hidden="1">
+    <row r="94" spans="1:32" ht="16">
       <c r="A94" s="102">
         <v>87</v>
       </c>
@@ -14246,7 +14245,7 @@
       <c r="AE94" s="106"/>
       <c r="AF94" s="106"/>
     </row>
-    <row r="95" spans="1:32" ht="16" hidden="1">
+    <row r="95" spans="1:32" ht="16">
       <c r="A95" s="102">
         <v>88</v>
       </c>
@@ -14331,7 +14330,7 @@
       <c r="AE95" s="106"/>
       <c r="AF95" s="106"/>
     </row>
-    <row r="96" spans="1:32" ht="16" hidden="1">
+    <row r="96" spans="1:32" ht="16">
       <c r="A96" s="102">
         <v>89</v>
       </c>
@@ -14412,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="16" hidden="1">
+    <row r="97" spans="1:32" ht="16">
       <c r="A97" s="102">
         <v>90</v>
       </c>
@@ -14584,7 +14583,7 @@
       <c r="AE98" s="106"/>
       <c r="AF98" s="106"/>
     </row>
-    <row r="99" spans="1:32" ht="16" hidden="1">
+    <row r="99" spans="1:32" ht="16">
       <c r="A99" s="102">
         <v>92</v>
       </c>
@@ -14666,7 +14665,7 @@
       <c r="AE99" s="106"/>
       <c r="AF99" s="106"/>
     </row>
-    <row r="100" spans="1:32" ht="16" hidden="1">
+    <row r="100" spans="1:32" ht="16">
       <c r="A100" s="102">
         <v>93</v>
       </c>
@@ -14747,7 +14746,7 @@
       <c r="AE100" s="106"/>
       <c r="AF100" s="106"/>
     </row>
-    <row r="101" spans="1:32" ht="16" hidden="1">
+    <row r="101" spans="1:32" ht="16">
       <c r="A101" s="102">
         <v>94</v>
       </c>
@@ -14832,7 +14831,7 @@
       <c r="AE101" s="106"/>
       <c r="AF101" s="106"/>
     </row>
-    <row r="102" spans="1:32" ht="16" hidden="1">
+    <row r="102" spans="1:32" ht="16">
       <c r="A102" s="102">
         <v>95</v>
       </c>
@@ -14918,7 +14917,7 @@
       <c r="AE102" s="106"/>
       <c r="AF102" s="106"/>
     </row>
-    <row r="103" spans="1:32" ht="16" hidden="1">
+    <row r="103" spans="1:32" ht="16">
       <c r="A103" s="102">
         <v>96</v>
       </c>
@@ -15169,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="16" hidden="1">
+    <row r="106" spans="1:32" ht="16">
       <c r="A106" s="102">
         <v>99</v>
       </c>
@@ -15255,7 +15254,7 @@
       <c r="AE106" s="106"/>
       <c r="AF106" s="106"/>
     </row>
-    <row r="107" spans="1:32" ht="16" hidden="1">
+    <row r="107" spans="1:32" ht="16">
       <c r="A107" s="102">
         <v>100</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="16" hidden="1">
+    <row r="108" spans="1:32" ht="16">
       <c r="A108" s="102">
         <v>101</v>
       </c>
@@ -15418,17 +15417,17 @@
       <c r="AC108" s="110">
         <v>43928</v>
       </c>
-      <c r="AD108" s="258">
+      <c r="AD108" s="242">
         <v>109</v>
       </c>
-      <c r="AE108" s="258">
+      <c r="AE108" s="242">
         <v>109</v>
       </c>
-      <c r="AF108" s="258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" ht="16" hidden="1">
+      <c r="AF108" s="242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="16">
       <c r="A109" s="102">
         <v>102</v>
       </c>
@@ -15506,11 +15505,11 @@
       <c r="AC109" s="110">
         <v>43928</v>
       </c>
-      <c r="AD109" s="260"/>
-      <c r="AE109" s="260"/>
-      <c r="AF109" s="260"/>
-    </row>
-    <row r="110" spans="1:32" ht="16" hidden="1">
+      <c r="AD109" s="246"/>
+      <c r="AE109" s="246"/>
+      <c r="AF109" s="246"/>
+    </row>
+    <row r="110" spans="1:32" ht="16">
       <c r="A110" s="102">
         <v>103</v>
       </c>
@@ -15585,11 +15584,11 @@
       <c r="AC110" s="110">
         <v>43928</v>
       </c>
-      <c r="AD110" s="260"/>
-      <c r="AE110" s="260"/>
-      <c r="AF110" s="260"/>
-    </row>
-    <row r="111" spans="1:32" ht="16" hidden="1">
+      <c r="AD110" s="246"/>
+      <c r="AE110" s="246"/>
+      <c r="AF110" s="246"/>
+    </row>
+    <row r="111" spans="1:32" ht="16">
       <c r="A111" s="102">
         <v>104</v>
       </c>
@@ -15664,11 +15663,11 @@
       <c r="AC111" s="110">
         <v>43928</v>
       </c>
-      <c r="AD111" s="259"/>
-      <c r="AE111" s="259"/>
-      <c r="AF111" s="259"/>
-    </row>
-    <row r="112" spans="1:32" ht="16" hidden="1">
+      <c r="AD111" s="243"/>
+      <c r="AE111" s="243"/>
+      <c r="AF111" s="243"/>
+    </row>
+    <row r="112" spans="1:32" ht="16">
       <c r="A112" s="102">
         <v>105</v>
       </c>
@@ -15743,13 +15742,13 @@
       <c r="AC112" s="123">
         <v>43938</v>
       </c>
-      <c r="AD112" s="258">
+      <c r="AD112" s="242">
         <v>9</v>
       </c>
       <c r="AE112" s="106"/>
       <c r="AF112" s="106"/>
     </row>
-    <row r="113" spans="1:32" ht="16" hidden="1">
+    <row r="113" spans="1:32" ht="16">
       <c r="A113" s="102">
         <v>106</v>
       </c>
@@ -15824,11 +15823,11 @@
       <c r="AC113" s="123">
         <v>43938</v>
       </c>
-      <c r="AD113" s="259"/>
+      <c r="AD113" s="243"/>
       <c r="AE113" s="106"/>
       <c r="AF113" s="106"/>
     </row>
-    <row r="114" spans="1:32" ht="16" hidden="1">
+    <row r="114" spans="1:32" ht="16">
       <c r="A114" s="102">
         <v>107</v>
       </c>
@@ -15912,7 +15911,7 @@
       <c r="AE114" s="106"/>
       <c r="AF114" s="106"/>
     </row>
-    <row r="115" spans="1:32" ht="16" hidden="1">
+    <row r="115" spans="1:32" ht="16">
       <c r="A115" s="102">
         <v>108</v>
       </c>
@@ -15997,7 +15996,7 @@
       <c r="AE115" s="106"/>
       <c r="AF115" s="106"/>
     </row>
-    <row r="116" spans="1:32" ht="16" hidden="1">
+    <row r="116" spans="1:32" ht="16">
       <c r="A116" s="102">
         <v>109</v>
       </c>
@@ -16084,7 +16083,7 @@
       <c r="AE116" s="106"/>
       <c r="AF116" s="106"/>
     </row>
-    <row r="117" spans="1:32" ht="16" hidden="1">
+    <row r="117" spans="1:32" ht="16">
       <c r="A117" s="102">
         <v>110</v>
       </c>
@@ -16167,7 +16166,7 @@
       <c r="AE117" s="106"/>
       <c r="AF117" s="106"/>
     </row>
-    <row r="118" spans="1:32" ht="16" hidden="1">
+    <row r="118" spans="1:32" ht="16">
       <c r="A118" s="102">
         <v>111</v>
       </c>
@@ -16247,7 +16246,7 @@
       <c r="AE118" s="106"/>
       <c r="AF118" s="106"/>
     </row>
-    <row r="119" spans="1:32" ht="16" hidden="1">
+    <row r="119" spans="1:32" ht="16">
       <c r="A119" s="102">
         <v>112</v>
       </c>
@@ -16332,7 +16331,7 @@
       <c r="AE119" s="106"/>
       <c r="AF119" s="106"/>
     </row>
-    <row r="120" spans="1:32" ht="16" hidden="1">
+    <row r="120" spans="1:32" ht="16">
       <c r="A120" s="102">
         <v>113</v>
       </c>
@@ -16417,7 +16416,7 @@
       <c r="AE120" s="106"/>
       <c r="AF120" s="106"/>
     </row>
-    <row r="121" spans="1:32" ht="16" hidden="1">
+    <row r="121" spans="1:32" ht="16">
       <c r="A121" s="102">
         <v>114</v>
       </c>
@@ -16500,7 +16499,7 @@
       <c r="AE121" s="106"/>
       <c r="AF121" s="106"/>
     </row>
-    <row r="122" spans="1:32" ht="16" hidden="1">
+    <row r="122" spans="1:32" ht="16">
       <c r="A122" s="102">
         <v>115</v>
       </c>
@@ -16570,7 +16569,7 @@
       <c r="AE122" s="106"/>
       <c r="AF122" s="106"/>
     </row>
-    <row r="123" spans="1:32" ht="16" hidden="1">
+    <row r="123" spans="1:32" ht="16">
       <c r="A123" s="102">
         <v>116</v>
       </c>
@@ -16650,7 +16649,7 @@
       <c r="AE123" s="106"/>
       <c r="AF123" s="106"/>
     </row>
-    <row r="124" spans="1:32" ht="16" hidden="1">
+    <row r="124" spans="1:32" ht="16">
       <c r="A124" s="102">
         <v>117</v>
       </c>
@@ -16730,7 +16729,7 @@
       <c r="AE124" s="106"/>
       <c r="AF124" s="106"/>
     </row>
-    <row r="125" spans="1:32" ht="16" hidden="1">
+    <row r="125" spans="1:32" ht="16">
       <c r="A125" s="102">
         <v>118</v>
       </c>
@@ -16810,7 +16809,7 @@
       <c r="AE125" s="106"/>
       <c r="AF125" s="106"/>
     </row>
-    <row r="126" spans="1:32" ht="16" hidden="1">
+    <row r="126" spans="1:32" ht="16">
       <c r="A126" s="102">
         <v>119</v>
       </c>
@@ -16986,7 +16985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="16" hidden="1">
+    <row r="128" spans="1:32" ht="16">
       <c r="A128" s="102">
         <v>121</v>
       </c>
@@ -17066,7 +17065,7 @@
       <c r="AE128" s="106"/>
       <c r="AF128" s="106"/>
     </row>
-    <row r="129" spans="1:32" ht="16" hidden="1">
+    <row r="129" spans="1:32" ht="16">
       <c r="A129" s="102">
         <v>122</v>
       </c>
@@ -17147,7 +17146,7 @@
       <c r="AE129" s="106"/>
       <c r="AF129" s="106"/>
     </row>
-    <row r="130" spans="1:32" ht="16" hidden="1">
+    <row r="130" spans="1:32" ht="16">
       <c r="A130" s="102">
         <v>123</v>
       </c>
@@ -17558,7 +17557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="16" hidden="1">
+    <row r="135" spans="1:32" ht="16">
       <c r="A135" s="102">
         <v>128</v>
       </c>
@@ -17641,7 +17640,7 @@
       <c r="AE135" s="106"/>
       <c r="AF135" s="106"/>
     </row>
-    <row r="136" spans="1:32" ht="16" hidden="1">
+    <row r="136" spans="1:32" ht="16">
       <c r="A136" s="102">
         <v>129</v>
       </c>
@@ -17713,7 +17712,7 @@
       <c r="AE136" s="106"/>
       <c r="AF136" s="106"/>
     </row>
-    <row r="137" spans="1:32" ht="16" hidden="1">
+    <row r="137" spans="1:32" ht="16">
       <c r="A137" s="102">
         <v>130</v>
       </c>
@@ -17788,7 +17787,7 @@
       <c r="AE137" s="106"/>
       <c r="AF137" s="106"/>
     </row>
-    <row r="138" spans="1:32" ht="16" hidden="1">
+    <row r="138" spans="1:32" ht="16">
       <c r="A138" s="102">
         <v>131</v>
       </c>
@@ -17861,7 +17860,7 @@
       <c r="AE138" s="106"/>
       <c r="AF138" s="106"/>
     </row>
-    <row r="139" spans="1:32" ht="16" hidden="1">
+    <row r="139" spans="1:32" ht="16">
       <c r="A139" s="102">
         <v>132</v>
       </c>
@@ -17937,7 +17936,7 @@
       <c r="AE139" s="106"/>
       <c r="AF139" s="106"/>
     </row>
-    <row r="140" spans="1:32" ht="16" hidden="1">
+    <row r="140" spans="1:32" ht="16">
       <c r="A140" s="102">
         <v>133</v>
       </c>
@@ -18024,7 +18023,7 @@
       <c r="AE140" s="106"/>
       <c r="AF140" s="106"/>
     </row>
-    <row r="141" spans="1:32" ht="16" hidden="1">
+    <row r="141" spans="1:32" ht="16">
       <c r="A141" s="102">
         <v>134</v>
       </c>
@@ -18104,7 +18103,7 @@
       <c r="AE141" s="106"/>
       <c r="AF141" s="106"/>
     </row>
-    <row r="142" spans="1:32" ht="16" hidden="1">
+    <row r="142" spans="1:32" ht="16">
       <c r="A142" s="102">
         <v>135</v>
       </c>
@@ -18181,7 +18180,7 @@
       <c r="AE142" s="106"/>
       <c r="AF142" s="106"/>
     </row>
-    <row r="143" spans="1:32" ht="16" hidden="1">
+    <row r="143" spans="1:32" ht="16">
       <c r="A143" s="102">
         <v>136</v>
       </c>
@@ -18257,7 +18256,7 @@
       <c r="AE143" s="106"/>
       <c r="AF143" s="106"/>
     </row>
-    <row r="144" spans="1:32" ht="16" hidden="1">
+    <row r="144" spans="1:32" ht="16">
       <c r="A144" s="102">
         <v>137</v>
       </c>
@@ -18335,7 +18334,7 @@
       <c r="AE144" s="106"/>
       <c r="AF144" s="106"/>
     </row>
-    <row r="145" spans="1:32" ht="16" hidden="1">
+    <row r="145" spans="1:32" ht="16">
       <c r="A145" s="102">
         <v>138</v>
       </c>
@@ -18415,7 +18414,7 @@
       <c r="AE145" s="106"/>
       <c r="AF145" s="106"/>
     </row>
-    <row r="146" spans="1:32" ht="16" hidden="1">
+    <row r="146" spans="1:32" ht="16">
       <c r="A146" s="102">
         <v>139</v>
       </c>
@@ -18497,7 +18496,7 @@
       <c r="AE146" s="106"/>
       <c r="AF146" s="106"/>
     </row>
-    <row r="147" spans="1:32" ht="16" hidden="1">
+    <row r="147" spans="1:32" ht="16">
       <c r="A147" s="102">
         <v>140</v>
       </c>
@@ -18579,7 +18578,7 @@
       <c r="AE147" s="106"/>
       <c r="AF147" s="106"/>
     </row>
-    <row r="148" spans="1:32" ht="16" hidden="1">
+    <row r="148" spans="1:32" ht="16">
       <c r="A148" s="102">
         <v>141</v>
       </c>
@@ -18649,7 +18648,7 @@
       <c r="AE148" s="106"/>
       <c r="AF148" s="106"/>
     </row>
-    <row r="149" spans="1:32" ht="16" hidden="1">
+    <row r="149" spans="1:32" ht="16">
       <c r="A149" s="102">
         <v>142</v>
       </c>
@@ -18724,7 +18723,7 @@
       <c r="AE149" s="106"/>
       <c r="AF149" s="106"/>
     </row>
-    <row r="150" spans="1:32" ht="16" hidden="1">
+    <row r="150" spans="1:32" ht="16">
       <c r="A150" s="102">
         <v>143</v>
       </c>
@@ -18804,7 +18803,7 @@
       <c r="AE150" s="106"/>
       <c r="AF150" s="106"/>
     </row>
-    <row r="151" spans="1:32" ht="16" hidden="1">
+    <row r="151" spans="1:32" ht="16">
       <c r="A151" s="102">
         <v>144</v>
       </c>
@@ -18885,7 +18884,7 @@
       <c r="AE151" s="106"/>
       <c r="AF151" s="106"/>
     </row>
-    <row r="152" spans="1:32" ht="16" hidden="1">
+    <row r="152" spans="1:32" ht="16">
       <c r="A152" s="102">
         <v>145</v>
       </c>
@@ -18964,7 +18963,7 @@
       <c r="AE152" s="106"/>
       <c r="AF152" s="106"/>
     </row>
-    <row r="153" spans="1:32" ht="16" hidden="1">
+    <row r="153" spans="1:32" ht="16">
       <c r="A153" s="102">
         <v>146</v>
       </c>
@@ -19043,7 +19042,7 @@
       <c r="AE153" s="106"/>
       <c r="AF153" s="106"/>
     </row>
-    <row r="154" spans="1:32" ht="16" hidden="1">
+    <row r="154" spans="1:32" ht="16">
       <c r="A154" s="102">
         <v>147</v>
       </c>
@@ -19125,7 +19124,7 @@
       <c r="AE154" s="106"/>
       <c r="AF154" s="106"/>
     </row>
-    <row r="155" spans="1:32" ht="16" hidden="1">
+    <row r="155" spans="1:32" ht="16">
       <c r="A155" s="102">
         <v>148</v>
       </c>
@@ -19205,7 +19204,7 @@
       <c r="AE155" s="106"/>
       <c r="AF155" s="106"/>
     </row>
-    <row r="156" spans="1:32" ht="16" hidden="1">
+    <row r="156" spans="1:32" ht="16">
       <c r="A156" s="102">
         <v>149</v>
       </c>
@@ -19281,7 +19280,7 @@
       <c r="AE156" s="106"/>
       <c r="AF156" s="106"/>
     </row>
-    <row r="157" spans="1:32" ht="16" hidden="1">
+    <row r="157" spans="1:32" ht="16">
       <c r="A157" s="102">
         <v>150</v>
       </c>
@@ -19520,7 +19519,7 @@
       <c r="AE159" s="106"/>
       <c r="AF159" s="106"/>
     </row>
-    <row r="160" spans="1:32" ht="16" hidden="1">
+    <row r="160" spans="1:32" ht="16">
       <c r="A160" s="102">
         <v>153</v>
       </c>
@@ -19597,7 +19596,7 @@
       <c r="AE160" s="106"/>
       <c r="AF160" s="106"/>
     </row>
-    <row r="161" spans="1:32" ht="16" hidden="1">
+    <row r="161" spans="1:32" ht="16">
       <c r="A161" s="102">
         <v>154</v>
       </c>
@@ -19684,7 +19683,7 @@
       <c r="AE161" s="106"/>
       <c r="AF161" s="106"/>
     </row>
-    <row r="162" spans="1:32" ht="16" hidden="1">
+    <row r="162" spans="1:32" ht="16">
       <c r="A162" s="102">
         <v>155</v>
       </c>
@@ -19764,7 +19763,7 @@
       <c r="AE162" s="106"/>
       <c r="AF162" s="106"/>
     </row>
-    <row r="163" spans="1:32" ht="16" hidden="1">
+    <row r="163" spans="1:32" ht="16">
       <c r="A163" s="102">
         <v>156</v>
       </c>
@@ -20080,7 +20079,7 @@
       <c r="AE166" s="106"/>
       <c r="AF166" s="106"/>
     </row>
-    <row r="167" spans="1:32" ht="16" hidden="1">
+    <row r="167" spans="1:32" ht="16">
       <c r="A167" s="102">
         <v>160</v>
       </c>
@@ -20158,7 +20157,7 @@
       <c r="AE167" s="106"/>
       <c r="AF167" s="106"/>
     </row>
-    <row r="168" spans="1:32" ht="16" hidden="1">
+    <row r="168" spans="1:32" ht="16">
       <c r="A168" s="102">
         <v>161</v>
       </c>
@@ -20244,7 +20243,7 @@
       <c r="AE168" s="106"/>
       <c r="AF168" s="106"/>
     </row>
-    <row r="169" spans="1:32" ht="16" hidden="1">
+    <row r="169" spans="1:32" ht="16">
       <c r="A169" s="102">
         <v>162</v>
       </c>
@@ -20326,7 +20325,7 @@
       <c r="AE169" s="106"/>
       <c r="AF169" s="106"/>
     </row>
-    <row r="170" spans="1:32" ht="16" hidden="1">
+    <row r="170" spans="1:32" ht="16">
       <c r="A170" s="102">
         <v>163</v>
       </c>
@@ -20400,7 +20399,7 @@
       <c r="AE170" s="106"/>
       <c r="AF170" s="106"/>
     </row>
-    <row r="171" spans="1:32" ht="16" hidden="1">
+    <row r="171" spans="1:32" ht="16">
       <c r="A171" s="102">
         <v>164</v>
       </c>
@@ -20477,7 +20476,7 @@
       <c r="AE171" s="106"/>
       <c r="AF171" s="106"/>
     </row>
-    <row r="172" spans="1:32" ht="16" hidden="1">
+    <row r="172" spans="1:32" ht="16">
       <c r="A172" s="102">
         <v>165</v>
       </c>
@@ -20557,7 +20556,7 @@
       <c r="AE172" s="106"/>
       <c r="AF172" s="106"/>
     </row>
-    <row r="173" spans="1:32" ht="16" hidden="1">
+    <row r="173" spans="1:32" ht="16">
       <c r="A173" s="102">
         <v>166</v>
       </c>
@@ -20637,7 +20636,7 @@
       <c r="AE173" s="106"/>
       <c r="AF173" s="106"/>
     </row>
-    <row r="174" spans="1:32" ht="16" hidden="1">
+    <row r="174" spans="1:32" ht="16">
       <c r="A174" s="102">
         <v>167</v>
       </c>
@@ -20717,7 +20716,7 @@
       <c r="AE174" s="106"/>
       <c r="AF174" s="106"/>
     </row>
-    <row r="175" spans="1:32" ht="16" hidden="1">
+    <row r="175" spans="1:32" ht="16">
       <c r="A175" s="102">
         <v>168</v>
       </c>
@@ -20797,7 +20796,7 @@
       <c r="AE175" s="106"/>
       <c r="AF175" s="106"/>
     </row>
-    <row r="176" spans="1:32" ht="16" hidden="1">
+    <row r="176" spans="1:32" ht="16">
       <c r="A176" s="102">
         <v>169</v>
       </c>
@@ -20879,7 +20878,7 @@
       <c r="AE176" s="106"/>
       <c r="AF176" s="106"/>
     </row>
-    <row r="177" spans="1:32" ht="16" hidden="1">
+    <row r="177" spans="1:32" ht="16">
       <c r="A177" s="102">
         <v>170</v>
       </c>
@@ -20963,7 +20962,7 @@
       <c r="AE177" s="106"/>
       <c r="AF177" s="106"/>
     </row>
-    <row r="178" spans="1:32" ht="16" hidden="1">
+    <row r="178" spans="1:32" ht="16">
       <c r="A178" s="102">
         <v>171</v>
       </c>
@@ -21038,7 +21037,7 @@
       <c r="AE178" s="106"/>
       <c r="AF178" s="106"/>
     </row>
-    <row r="179" spans="1:32" ht="16" hidden="1">
+    <row r="179" spans="1:32" ht="16">
       <c r="A179" s="102">
         <v>172</v>
       </c>
@@ -21119,7 +21118,7 @@
       <c r="AE179" s="106"/>
       <c r="AF179" s="106"/>
     </row>
-    <row r="180" spans="1:32" ht="16" hidden="1">
+    <row r="180" spans="1:32" ht="16">
       <c r="A180" s="102">
         <v>173</v>
       </c>
@@ -21195,7 +21194,7 @@
       <c r="AE180" s="106"/>
       <c r="AF180" s="106"/>
     </row>
-    <row r="181" spans="1:32" ht="16" hidden="1">
+    <row r="181" spans="1:32" ht="16">
       <c r="A181" s="102">
         <v>174</v>
       </c>
@@ -21269,7 +21268,7 @@
       <c r="AE181" s="106"/>
       <c r="AF181" s="106"/>
     </row>
-    <row r="182" spans="1:32" ht="16" hidden="1">
+    <row r="182" spans="1:32" ht="16">
       <c r="A182" s="102">
         <v>175</v>
       </c>
@@ -21339,7 +21338,7 @@
       <c r="AE182" s="106"/>
       <c r="AF182" s="106"/>
     </row>
-    <row r="183" spans="1:32" ht="16" hidden="1">
+    <row r="183" spans="1:32" ht="16">
       <c r="A183" s="102">
         <v>176</v>
       </c>
@@ -21415,7 +21414,7 @@
       <c r="AE183" s="106"/>
       <c r="AF183" s="106"/>
     </row>
-    <row r="184" spans="1:32" ht="16" hidden="1">
+    <row r="184" spans="1:32" ht="16">
       <c r="A184" s="102">
         <v>177</v>
       </c>
@@ -21485,7 +21484,7 @@
       <c r="AE184" s="106"/>
       <c r="AF184" s="106"/>
     </row>
-    <row r="185" spans="1:32" ht="16" hidden="1">
+    <row r="185" spans="1:32" ht="16">
       <c r="A185" s="102">
         <v>178</v>
       </c>
@@ -21559,7 +21558,7 @@
       <c r="AE185" s="106"/>
       <c r="AF185" s="106"/>
     </row>
-    <row r="186" spans="1:32" ht="16" hidden="1">
+    <row r="186" spans="1:32" ht="16">
       <c r="A186" s="102">
         <v>179</v>
       </c>
@@ -21639,7 +21638,7 @@
       <c r="AE186" s="106"/>
       <c r="AF186" s="106"/>
     </row>
-    <row r="187" spans="1:32" ht="16" hidden="1">
+    <row r="187" spans="1:32" ht="16">
       <c r="A187" s="102">
         <v>180</v>
       </c>
@@ -21720,7 +21719,7 @@
       <c r="AE187" s="106"/>
       <c r="AF187" s="106"/>
     </row>
-    <row r="188" spans="1:32" ht="16" hidden="1">
+    <row r="188" spans="1:32" ht="16">
       <c r="A188" s="102">
         <v>181</v>
       </c>
@@ -21799,7 +21798,7 @@
       <c r="AE188" s="106"/>
       <c r="AF188" s="106"/>
     </row>
-    <row r="189" spans="1:32" ht="16" hidden="1">
+    <row r="189" spans="1:32" ht="16">
       <c r="A189" s="102">
         <v>182</v>
       </c>
@@ -21874,7 +21873,7 @@
       <c r="AE189" s="106"/>
       <c r="AF189" s="106"/>
     </row>
-    <row r="190" spans="1:32" ht="16" hidden="1">
+    <row r="190" spans="1:32" ht="16">
       <c r="A190" s="102">
         <v>183</v>
       </c>
@@ -21949,7 +21948,7 @@
       <c r="AE190" s="106"/>
       <c r="AF190" s="106"/>
     </row>
-    <row r="191" spans="1:32" ht="16" hidden="1">
+    <row r="191" spans="1:32" ht="16">
       <c r="A191" s="102">
         <v>184</v>
       </c>
@@ -22034,7 +22033,7 @@
       <c r="AE191" s="106"/>
       <c r="AF191" s="106"/>
     </row>
-    <row r="192" spans="1:32" ht="16" hidden="1">
+    <row r="192" spans="1:32" ht="16">
       <c r="A192" s="102">
         <v>185</v>
       </c>
@@ -22115,7 +22114,7 @@
       <c r="AE192" s="106"/>
       <c r="AF192" s="106"/>
     </row>
-    <row r="193" spans="1:32" ht="16" hidden="1">
+    <row r="193" spans="1:32" ht="16">
       <c r="A193" s="102">
         <v>186</v>
       </c>
@@ -22194,7 +22193,7 @@
       <c r="AE193" s="106"/>
       <c r="AF193" s="106"/>
     </row>
-    <row r="194" spans="1:32" ht="16" hidden="1">
+    <row r="194" spans="1:32" ht="16">
       <c r="A194" s="102">
         <v>187</v>
       </c>
@@ -22271,7 +22270,7 @@
       <c r="AE194" s="106"/>
       <c r="AF194" s="106"/>
     </row>
-    <row r="195" spans="1:32" ht="16" hidden="1">
+    <row r="195" spans="1:32" ht="16">
       <c r="A195" s="102">
         <v>188</v>
       </c>
@@ -22350,7 +22349,7 @@
       <c r="AE195" s="106"/>
       <c r="AF195" s="106"/>
     </row>
-    <row r="196" spans="1:32" ht="16" hidden="1">
+    <row r="196" spans="1:32" ht="16">
       <c r="A196" s="102">
         <v>189</v>
       </c>
@@ -22431,7 +22430,7 @@
       <c r="AE196" s="106"/>
       <c r="AF196" s="106"/>
     </row>
-    <row r="197" spans="1:32" ht="16" hidden="1">
+    <row r="197" spans="1:32" ht="16">
       <c r="A197" s="102">
         <v>190</v>
       </c>
@@ -22508,7 +22507,7 @@
       <c r="AE197" s="106"/>
       <c r="AF197" s="106"/>
     </row>
-    <row r="198" spans="1:32" ht="16" hidden="1">
+    <row r="198" spans="1:32" ht="16">
       <c r="A198" s="102">
         <v>191</v>
       </c>
@@ -22585,7 +22584,7 @@
       <c r="AE198" s="106"/>
       <c r="AF198" s="106"/>
     </row>
-    <row r="199" spans="1:32" ht="16" hidden="1">
+    <row r="199" spans="1:32" ht="16">
       <c r="A199" s="102">
         <v>192</v>
       </c>
@@ -22662,7 +22661,7 @@
       <c r="AE199" s="106"/>
       <c r="AF199" s="106"/>
     </row>
-    <row r="200" spans="1:32" ht="16" hidden="1">
+    <row r="200" spans="1:32" ht="16">
       <c r="A200" s="102">
         <v>193</v>
       </c>
@@ -22737,7 +22736,7 @@
       <c r="AE200" s="106"/>
       <c r="AF200" s="106"/>
     </row>
-    <row r="201" spans="1:32" ht="16" hidden="1">
+    <row r="201" spans="1:32" ht="16">
       <c r="A201" s="102">
         <v>194</v>
       </c>
@@ -22814,7 +22813,7 @@
       <c r="AE201" s="106"/>
       <c r="AF201" s="106"/>
     </row>
-    <row r="202" spans="1:32" ht="16" hidden="1">
+    <row r="202" spans="1:32" ht="16">
       <c r="A202" s="102">
         <v>195</v>
       </c>
@@ -22895,7 +22894,7 @@
       <c r="AE202" s="106"/>
       <c r="AF202" s="106"/>
     </row>
-    <row r="203" spans="1:32" ht="16" hidden="1">
+    <row r="203" spans="1:32" ht="16">
       <c r="A203" s="102">
         <v>196</v>
       </c>
@@ -22976,7 +22975,7 @@
       <c r="AE203" s="106"/>
       <c r="AF203" s="106"/>
     </row>
-    <row r="204" spans="1:32" ht="16" hidden="1">
+    <row r="204" spans="1:32" ht="16">
       <c r="A204" s="102">
         <v>197</v>
       </c>
@@ -23051,7 +23050,7 @@
       <c r="AE204" s="106"/>
       <c r="AF204" s="106"/>
     </row>
-    <row r="205" spans="1:32" ht="16" hidden="1">
+    <row r="205" spans="1:32" ht="16">
       <c r="A205" s="102">
         <v>198</v>
       </c>
@@ -23126,7 +23125,7 @@
       <c r="AE205" s="106"/>
       <c r="AF205" s="106"/>
     </row>
-    <row r="206" spans="1:32" ht="16" hidden="1">
+    <row r="206" spans="1:32" ht="16">
       <c r="A206" s="102">
         <v>199</v>
       </c>
@@ -23203,7 +23202,7 @@
       <c r="AE206" s="106"/>
       <c r="AF206" s="106"/>
     </row>
-    <row r="207" spans="1:32" ht="16" hidden="1">
+    <row r="207" spans="1:32" ht="16">
       <c r="A207" s="102">
         <v>200</v>
       </c>
@@ -23280,7 +23279,7 @@
       <c r="AE207" s="106"/>
       <c r="AF207" s="106"/>
     </row>
-    <row r="208" spans="1:32" ht="16" hidden="1">
+    <row r="208" spans="1:32" ht="16">
       <c r="A208" s="102">
         <v>201</v>
       </c>
@@ -23361,7 +23360,7 @@
       <c r="AE208" s="106"/>
       <c r="AF208" s="106"/>
     </row>
-    <row r="209" spans="1:32" ht="16" hidden="1">
+    <row r="209" spans="1:32" ht="16">
       <c r="A209" s="102">
         <v>202</v>
       </c>
@@ -23440,7 +23439,7 @@
       <c r="AE209" s="106"/>
       <c r="AF209" s="106"/>
     </row>
-    <row r="210" spans="1:32" ht="15" hidden="1">
+    <row r="210" spans="1:32" ht="15">
       <c r="A210" s="102">
         <v>203</v>
       </c>
@@ -23507,7 +23506,7 @@
       <c r="AE210" s="106"/>
       <c r="AF210" s="106"/>
     </row>
-    <row r="211" spans="1:32" ht="16" hidden="1">
+    <row r="211" spans="1:32" ht="16">
       <c r="A211" s="102">
         <v>204</v>
       </c>
@@ -23589,7 +23588,7 @@
       <c r="AE211" s="106"/>
       <c r="AF211" s="106"/>
     </row>
-    <row r="212" spans="1:32" ht="16" hidden="1">
+    <row r="212" spans="1:32" ht="16">
       <c r="A212" s="102">
         <v>205</v>
       </c>
@@ -23838,7 +23837,7 @@
       <c r="AE214" s="106"/>
       <c r="AF214" s="106"/>
     </row>
-    <row r="215" spans="1:32" ht="16" hidden="1">
+    <row r="215" spans="1:32" ht="16">
       <c r="A215" s="102">
         <v>208</v>
       </c>
@@ -23913,7 +23912,7 @@
       <c r="AE215" s="106"/>
       <c r="AF215" s="106"/>
     </row>
-    <row r="216" spans="1:32" ht="16" hidden="1">
+    <row r="216" spans="1:32" ht="16">
       <c r="A216" s="102">
         <v>209</v>
       </c>
@@ -23992,7 +23991,7 @@
       <c r="AE216" s="106"/>
       <c r="AF216" s="106"/>
     </row>
-    <row r="217" spans="1:32" ht="16" hidden="1">
+    <row r="217" spans="1:32" ht="16">
       <c r="A217" s="102">
         <v>210</v>
       </c>
@@ -24071,7 +24070,7 @@
       <c r="AE217" s="106"/>
       <c r="AF217" s="106"/>
     </row>
-    <row r="218" spans="1:32" ht="16" hidden="1">
+    <row r="218" spans="1:32" ht="16">
       <c r="A218" s="102">
         <v>211</v>
       </c>
@@ -24148,7 +24147,7 @@
       <c r="AE218" s="106"/>
       <c r="AF218" s="106"/>
     </row>
-    <row r="219" spans="1:32" ht="16" hidden="1">
+    <row r="219" spans="1:32" ht="16">
       <c r="A219" s="102">
         <v>212</v>
       </c>
@@ -24229,7 +24228,7 @@
       <c r="AE219" s="106"/>
       <c r="AF219" s="106"/>
     </row>
-    <row r="220" spans="1:32" ht="16" hidden="1">
+    <row r="220" spans="1:32" ht="16">
       <c r="A220" s="102">
         <v>213</v>
       </c>
@@ -24306,7 +24305,7 @@
       <c r="AE220" s="106"/>
       <c r="AF220" s="106"/>
     </row>
-    <row r="221" spans="1:32" ht="16" hidden="1">
+    <row r="221" spans="1:32" ht="16">
       <c r="A221" s="102">
         <v>214</v>
       </c>
@@ -24381,7 +24380,7 @@
       <c r="AE221" s="106"/>
       <c r="AF221" s="106"/>
     </row>
-    <row r="222" spans="1:32" ht="16" hidden="1">
+    <row r="222" spans="1:32" ht="16">
       <c r="A222" s="102">
         <v>215</v>
       </c>
@@ -24458,7 +24457,7 @@
       <c r="AE222" s="106"/>
       <c r="AF222" s="106"/>
     </row>
-    <row r="223" spans="1:32" ht="16" hidden="1">
+    <row r="223" spans="1:32" ht="16">
       <c r="A223" s="102">
         <v>216</v>
       </c>
@@ -24537,7 +24536,7 @@
       <c r="AE223" s="106"/>
       <c r="AF223" s="106"/>
     </row>
-    <row r="224" spans="1:32" ht="16" hidden="1">
+    <row r="224" spans="1:32" ht="16">
       <c r="A224" s="102">
         <v>217</v>
       </c>
@@ -24616,7 +24615,7 @@
       <c r="AE224" s="106"/>
       <c r="AF224" s="106"/>
     </row>
-    <row r="225" spans="1:32" ht="16" hidden="1">
+    <row r="225" spans="1:32" ht="16">
       <c r="A225" s="102">
         <v>218</v>
       </c>
@@ -24693,7 +24692,7 @@
       <c r="AE225" s="106"/>
       <c r="AF225" s="106"/>
     </row>
-    <row r="226" spans="1:32" ht="16" hidden="1">
+    <row r="226" spans="1:32" ht="16">
       <c r="A226" s="102">
         <v>219</v>
       </c>
@@ -24774,7 +24773,7 @@
       <c r="AE226" s="106"/>
       <c r="AF226" s="106"/>
     </row>
-    <row r="227" spans="1:32" ht="16" hidden="1">
+    <row r="227" spans="1:32" ht="16">
       <c r="A227" s="102">
         <v>220</v>
       </c>
@@ -24849,7 +24848,7 @@
       <c r="AE227" s="106"/>
       <c r="AF227" s="106"/>
     </row>
-    <row r="228" spans="1:32" ht="16" hidden="1">
+    <row r="228" spans="1:32" ht="16">
       <c r="A228" s="102">
         <v>221</v>
       </c>
@@ -24926,7 +24925,7 @@
       <c r="AE228" s="106"/>
       <c r="AF228" s="106"/>
     </row>
-    <row r="229" spans="1:32" ht="16" hidden="1">
+    <row r="229" spans="1:32" ht="16">
       <c r="A229" s="102">
         <v>222</v>
       </c>
@@ -24999,7 +24998,7 @@
       <c r="AE229" s="106"/>
       <c r="AF229" s="106"/>
     </row>
-    <row r="230" spans="1:32" ht="16" hidden="1">
+    <row r="230" spans="1:32" ht="16">
       <c r="A230" s="102">
         <v>223</v>
       </c>
@@ -25163,7 +25162,7 @@
       <c r="AE231" s="106"/>
       <c r="AF231" s="106"/>
     </row>
-    <row r="232" spans="1:32" ht="16" hidden="1">
+    <row r="232" spans="1:32" ht="16">
       <c r="A232" s="102">
         <v>225</v>
       </c>
@@ -25243,7 +25242,7 @@
       <c r="AE232" s="106"/>
       <c r="AF232" s="106"/>
     </row>
-    <row r="233" spans="1:32" ht="16" hidden="1">
+    <row r="233" spans="1:32" ht="16">
       <c r="A233" s="102">
         <v>226</v>
       </c>
@@ -25322,7 +25321,7 @@
       <c r="AE233" s="106"/>
       <c r="AF233" s="106"/>
     </row>
-    <row r="234" spans="1:32" ht="16" hidden="1" customHeight="1">
+    <row r="234" spans="1:32" ht="16" customHeight="1">
       <c r="A234" s="102">
         <v>227</v>
       </c>
@@ -25402,7 +25401,7 @@
       <c r="AE234" s="106"/>
       <c r="AF234" s="106"/>
     </row>
-    <row r="235" spans="1:32" ht="16" hidden="1">
+    <row r="235" spans="1:32" ht="16">
       <c r="A235" s="102">
         <v>228</v>
       </c>
@@ -25475,7 +25474,7 @@
       <c r="AE235" s="106"/>
       <c r="AF235" s="106"/>
     </row>
-    <row r="236" spans="1:32" ht="16" hidden="1">
+    <row r="236" spans="1:32" ht="16">
       <c r="A236" s="102">
         <v>229</v>
       </c>
@@ -25550,7 +25549,7 @@
       <c r="AE236" s="106"/>
       <c r="AF236" s="106"/>
     </row>
-    <row r="237" spans="1:32" ht="16" hidden="1">
+    <row r="237" spans="1:32" ht="16">
       <c r="A237" s="102">
         <v>230</v>
       </c>
@@ -25623,7 +25622,7 @@
       <c r="AE237" s="106"/>
       <c r="AF237" s="106"/>
     </row>
-    <row r="238" spans="1:32" ht="16" hidden="1">
+    <row r="238" spans="1:32" ht="16">
       <c r="A238" s="102">
         <v>231</v>
       </c>
@@ -25773,7 +25772,7 @@
       <c r="AE239" s="106"/>
       <c r="AF239" s="106"/>
     </row>
-    <row r="240" spans="1:32" ht="16" hidden="1">
+    <row r="240" spans="1:32" ht="16">
       <c r="A240" s="102">
         <v>233</v>
       </c>
@@ -25852,7 +25851,7 @@
       <c r="AE240" s="106"/>
       <c r="AF240" s="106"/>
     </row>
-    <row r="241" spans="1:32" ht="16" hidden="1">
+    <row r="241" spans="1:32" ht="16">
       <c r="A241" s="102">
         <v>234</v>
       </c>
@@ -26083,7 +26082,7 @@
       <c r="AE243" s="106"/>
       <c r="AF243" s="106"/>
     </row>
-    <row r="244" spans="1:32" ht="16" hidden="1">
+    <row r="244" spans="1:32" ht="16">
       <c r="A244" s="102">
         <v>237</v>
       </c>
@@ -26157,7 +26156,7 @@
       <c r="AE244" s="106"/>
       <c r="AF244" s="106"/>
     </row>
-    <row r="245" spans="1:32" ht="16" hidden="1">
+    <row r="245" spans="1:32" ht="16">
       <c r="A245" s="102">
         <v>238</v>
       </c>
@@ -26236,7 +26235,7 @@
       <c r="AE245" s="106"/>
       <c r="AF245" s="106"/>
     </row>
-    <row r="246" spans="1:32" ht="16" hidden="1">
+    <row r="246" spans="1:32" ht="16">
       <c r="A246" s="102">
         <v>239</v>
       </c>
@@ -26317,7 +26316,7 @@
       <c r="AE246" s="106"/>
       <c r="AF246" s="106"/>
     </row>
-    <row r="247" spans="1:32" ht="16" hidden="1">
+    <row r="247" spans="1:32" ht="16">
       <c r="A247" s="102">
         <v>240</v>
       </c>
@@ -26400,7 +26399,7 @@
       <c r="AE247" s="106"/>
       <c r="AF247" s="106"/>
     </row>
-    <row r="248" spans="1:32" ht="16" hidden="1">
+    <row r="248" spans="1:32" ht="16">
       <c r="A248" s="102">
         <v>241</v>
       </c>
@@ -26481,7 +26480,7 @@
       <c r="AE248" s="106"/>
       <c r="AF248" s="106"/>
     </row>
-    <row r="249" spans="1:32" ht="16" hidden="1">
+    <row r="249" spans="1:32" ht="16">
       <c r="A249" s="102">
         <v>242</v>
       </c>
@@ -26559,7 +26558,7 @@
       <c r="AE249" s="106"/>
       <c r="AF249" s="106"/>
     </row>
-    <row r="250" spans="1:32" ht="16" hidden="1">
+    <row r="250" spans="1:32" ht="16">
       <c r="A250" s="102">
         <v>243</v>
       </c>
@@ -26636,7 +26635,7 @@
       <c r="AE250" s="106"/>
       <c r="AF250" s="106"/>
     </row>
-    <row r="251" spans="1:32" ht="16" hidden="1">
+    <row r="251" spans="1:32" ht="16">
       <c r="A251" s="102">
         <v>244</v>
       </c>
@@ -26713,7 +26712,7 @@
       <c r="AE251" s="106"/>
       <c r="AF251" s="106"/>
     </row>
-    <row r="252" spans="1:32" ht="16" hidden="1">
+    <row r="252" spans="1:32" ht="16">
       <c r="A252" s="102">
         <v>245</v>
       </c>
@@ -26788,7 +26787,7 @@
       <c r="AE252" s="106"/>
       <c r="AF252" s="106"/>
     </row>
-    <row r="253" spans="1:32" ht="16" hidden="1">
+    <row r="253" spans="1:32" ht="16">
       <c r="A253" s="102">
         <v>246</v>
       </c>
@@ -26947,7 +26946,7 @@
       <c r="AE254" s="106"/>
       <c r="AF254" s="106"/>
     </row>
-    <row r="255" spans="1:32" ht="16" hidden="1">
+    <row r="255" spans="1:32" ht="16">
       <c r="A255" s="102">
         <v>248</v>
       </c>
@@ -27018,7 +27017,7 @@
       <c r="AE255" s="106"/>
       <c r="AF255" s="106"/>
     </row>
-    <row r="256" spans="1:32" ht="16" hidden="1">
+    <row r="256" spans="1:32" ht="16">
       <c r="A256" s="102">
         <v>249</v>
       </c>
@@ -27093,7 +27092,7 @@
       <c r="AE256" s="106"/>
       <c r="AF256" s="106"/>
     </row>
-    <row r="257" spans="1:32" ht="16" hidden="1">
+    <row r="257" spans="1:32" ht="16">
       <c r="A257" s="102">
         <v>250</v>
       </c>
@@ -27174,7 +27173,7 @@
       <c r="AE257" s="106"/>
       <c r="AF257" s="106"/>
     </row>
-    <row r="258" spans="1:32" ht="16" hidden="1">
+    <row r="258" spans="1:32" ht="16">
       <c r="A258" s="133">
         <v>251</v>
       </c>
@@ -27255,7 +27254,7 @@
       <c r="AE258" s="136"/>
       <c r="AF258" s="136"/>
     </row>
-    <row r="259" spans="1:32" ht="16" hidden="1">
+    <row r="259" spans="1:32" ht="16">
       <c r="A259" s="140">
         <v>252</v>
       </c>
@@ -27328,7 +27327,7 @@
       <c r="AE259" s="140"/>
       <c r="AF259" s="140"/>
     </row>
-    <row r="260" spans="1:32" ht="16" hidden="1">
+    <row r="260" spans="1:32" ht="16">
       <c r="A260" s="140">
         <v>253</v>
       </c>
@@ -27403,7 +27402,7 @@
       <c r="AE260" s="140"/>
       <c r="AF260" s="140"/>
     </row>
-    <row r="261" spans="1:32" ht="16" hidden="1">
+    <row r="261" spans="1:32" ht="16">
       <c r="A261" s="140">
         <v>254</v>
       </c>
@@ -27476,7 +27475,7 @@
       <c r="AE261" s="140"/>
       <c r="AF261" s="140"/>
     </row>
-    <row r="262" spans="1:32" ht="16" hidden="1">
+    <row r="262" spans="1:32" ht="16">
       <c r="A262" s="140">
         <v>255</v>
       </c>
@@ -27551,7 +27550,7 @@
       <c r="AE262" s="140"/>
       <c r="AF262" s="140"/>
     </row>
-    <row r="263" spans="1:32" ht="16" hidden="1">
+    <row r="263" spans="1:32" ht="16">
       <c r="A263" s="140">
         <v>256</v>
       </c>
@@ -27624,7 +27623,7 @@
       <c r="AE263" s="140"/>
       <c r="AF263" s="140"/>
     </row>
-    <row r="264" spans="1:32" ht="16" hidden="1">
+    <row r="264" spans="1:32" ht="16">
       <c r="A264" s="140">
         <v>257</v>
       </c>
@@ -27697,7 +27696,7 @@
       <c r="AE264" s="140"/>
       <c r="AF264" s="140"/>
     </row>
-    <row r="265" spans="1:32" ht="16" hidden="1">
+    <row r="265" spans="1:32" ht="16">
       <c r="A265" s="140">
         <v>258</v>
       </c>
@@ -27772,7 +27771,7 @@
       <c r="AE265" s="140"/>
       <c r="AF265" s="140"/>
     </row>
-    <row r="266" spans="1:32" ht="16" hidden="1">
+    <row r="266" spans="1:32" ht="16">
       <c r="A266" s="140">
         <v>259</v>
       </c>
@@ -27847,7 +27846,7 @@
       <c r="AE266" s="140"/>
       <c r="AF266" s="140"/>
     </row>
-    <row r="267" spans="1:32" ht="16" hidden="1">
+    <row r="267" spans="1:32" ht="16">
       <c r="A267" s="140">
         <v>260</v>
       </c>
@@ -27920,7 +27919,7 @@
       <c r="AE267" s="140"/>
       <c r="AF267" s="140"/>
     </row>
-    <row r="268" spans="1:32" ht="16" hidden="1">
+    <row r="268" spans="1:32" ht="16">
       <c r="A268" s="140">
         <v>261</v>
       </c>
@@ -27991,7 +27990,7 @@
       <c r="AE268" s="140"/>
       <c r="AF268" s="140"/>
     </row>
-    <row r="269" spans="1:32" ht="16" hidden="1">
+    <row r="269" spans="1:32" ht="16">
       <c r="A269" s="140">
         <v>262</v>
       </c>
@@ -28068,7 +28067,7 @@
       <c r="AE269" s="140"/>
       <c r="AF269" s="140"/>
     </row>
-    <row r="270" spans="1:32" ht="16" hidden="1">
+    <row r="270" spans="1:32" ht="16">
       <c r="A270" s="140">
         <v>263</v>
       </c>
@@ -28143,7 +28142,7 @@
       <c r="AE270" s="140"/>
       <c r="AF270" s="140"/>
     </row>
-    <row r="271" spans="1:32" ht="16" hidden="1">
+    <row r="271" spans="1:32" ht="16">
       <c r="A271" s="140">
         <v>264</v>
       </c>
@@ -28216,7 +28215,7 @@
       <c r="AE271" s="140"/>
       <c r="AF271" s="140"/>
     </row>
-    <row r="272" spans="1:32" ht="16" hidden="1">
+    <row r="272" spans="1:32" ht="16">
       <c r="A272" s="140">
         <v>265</v>
       </c>
@@ -28283,7 +28282,7 @@
       <c r="AE272" s="140"/>
       <c r="AF272" s="140"/>
     </row>
-    <row r="273" spans="1:32" ht="16" hidden="1">
+    <row r="273" spans="1:32" ht="16">
       <c r="A273" s="140">
         <v>266</v>
       </c>
@@ -28360,7 +28359,7 @@
       <c r="AE273" s="140"/>
       <c r="AF273" s="140"/>
     </row>
-    <row r="274" spans="1:32" ht="16" hidden="1">
+    <row r="274" spans="1:32" ht="16">
       <c r="A274" s="140">
         <v>267</v>
       </c>
@@ -28441,7 +28440,7 @@
       <c r="AE274" s="140"/>
       <c r="AF274" s="140"/>
     </row>
-    <row r="275" spans="1:32" ht="16" hidden="1">
+    <row r="275" spans="1:32" ht="16">
       <c r="A275" s="140">
         <v>268</v>
       </c>
@@ -28514,7 +28513,7 @@
       <c r="AE275" s="140"/>
       <c r="AF275" s="140"/>
     </row>
-    <row r="276" spans="1:32" ht="16" hidden="1">
+    <row r="276" spans="1:32" ht="16">
       <c r="A276" s="140">
         <v>269</v>
       </c>
@@ -28589,7 +28588,7 @@
       <c r="AE276" s="140"/>
       <c r="AF276" s="140"/>
     </row>
-    <row r="277" spans="1:32" ht="16" hidden="1">
+    <row r="277" spans="1:32" ht="16">
       <c r="A277" s="140">
         <v>270</v>
       </c>
@@ -28664,7 +28663,7 @@
       <c r="AE277" s="140"/>
       <c r="AF277" s="140"/>
     </row>
-    <row r="278" spans="1:32" ht="16" hidden="1">
+    <row r="278" spans="1:32" ht="16">
       <c r="A278" s="140">
         <v>271</v>
       </c>
@@ -28733,7 +28732,7 @@
       <c r="AE278" s="140"/>
       <c r="AF278" s="140"/>
     </row>
-    <row r="279" spans="1:32" ht="16" hidden="1">
+    <row r="279" spans="1:32" ht="16">
       <c r="A279" s="140">
         <v>272</v>
       </c>
@@ -28808,7 +28807,7 @@
       <c r="AE279" s="140"/>
       <c r="AF279" s="140"/>
     </row>
-    <row r="280" spans="1:32" ht="16" hidden="1">
+    <row r="280" spans="1:32" ht="16">
       <c r="A280" s="140">
         <v>273</v>
       </c>
@@ -28883,7 +28882,7 @@
       <c r="AE280" s="140"/>
       <c r="AF280" s="140"/>
     </row>
-    <row r="281" spans="1:32" ht="16" hidden="1">
+    <row r="281" spans="1:32" ht="16">
       <c r="A281" s="140">
         <v>274</v>
       </c>
@@ -28958,7 +28957,7 @@
       <c r="AE281" s="140"/>
       <c r="AF281" s="140"/>
     </row>
-    <row r="282" spans="1:32" ht="16" hidden="1">
+    <row r="282" spans="1:32" ht="16">
       <c r="A282" s="140">
         <v>275</v>
       </c>
@@ -29035,7 +29034,7 @@
       <c r="AE282" s="140"/>
       <c r="AF282" s="140"/>
     </row>
-    <row r="283" spans="1:32" ht="16" hidden="1">
+    <row r="283" spans="1:32" ht="16">
       <c r="A283" s="140">
         <v>276</v>
       </c>
@@ -29110,7 +29109,7 @@
       <c r="AE283" s="140"/>
       <c r="AF283" s="140"/>
     </row>
-    <row r="284" spans="1:32" ht="16" hidden="1">
+    <row r="284" spans="1:32" ht="16">
       <c r="A284" s="140">
         <v>277</v>
       </c>
@@ -29187,7 +29186,7 @@
       <c r="AE284" s="140"/>
       <c r="AF284" s="140"/>
     </row>
-    <row r="285" spans="1:32" ht="16" hidden="1">
+    <row r="285" spans="1:32" ht="16">
       <c r="A285" s="140">
         <v>278</v>
       </c>
@@ -29268,7 +29267,7 @@
       <c r="AE285" s="140"/>
       <c r="AF285" s="140"/>
     </row>
-    <row r="286" spans="1:32" ht="16" hidden="1">
+    <row r="286" spans="1:32" ht="16">
       <c r="A286" s="140">
         <v>279</v>
       </c>
@@ -29345,7 +29344,7 @@
       <c r="AE286" s="140"/>
       <c r="AF286" s="140"/>
     </row>
-    <row r="287" spans="1:32" ht="16" hidden="1">
+    <row r="287" spans="1:32" ht="16">
       <c r="A287" s="140">
         <v>280</v>
       </c>
@@ -29422,7 +29421,7 @@
       <c r="AE287" s="140"/>
       <c r="AF287" s="140"/>
     </row>
-    <row r="288" spans="1:32" ht="16" hidden="1">
+    <row r="288" spans="1:32" ht="16">
       <c r="A288" s="140">
         <v>281</v>
       </c>
@@ -29499,7 +29498,7 @@
       <c r="AE288" s="140"/>
       <c r="AF288" s="140"/>
     </row>
-    <row r="289" spans="1:32" ht="16" hidden="1">
+    <row r="289" spans="1:32" ht="16">
       <c r="A289" s="140">
         <v>282</v>
       </c>
@@ -29576,7 +29575,7 @@
       <c r="AE289" s="140"/>
       <c r="AF289" s="140"/>
     </row>
-    <row r="290" spans="1:32" ht="16" hidden="1">
+    <row r="290" spans="1:32" ht="16">
       <c r="A290" s="140">
         <v>283</v>
       </c>
@@ -29651,7 +29650,7 @@
       <c r="AE290" s="140"/>
       <c r="AF290" s="140"/>
     </row>
-    <row r="291" spans="1:32" ht="16" hidden="1">
+    <row r="291" spans="1:32" ht="16">
       <c r="A291" s="140">
         <v>284</v>
       </c>
@@ -29726,7 +29725,7 @@
       <c r="AE291" s="140"/>
       <c r="AF291" s="140"/>
     </row>
-    <row r="292" spans="1:32" ht="16" hidden="1">
+    <row r="292" spans="1:32" ht="16">
       <c r="A292" s="140">
         <v>285</v>
       </c>
@@ -29803,7 +29802,7 @@
       <c r="AE292" s="140"/>
       <c r="AF292" s="140"/>
     </row>
-    <row r="293" spans="1:32" ht="16" hidden="1">
+    <row r="293" spans="1:32" ht="16">
       <c r="A293" s="140">
         <v>286</v>
       </c>
@@ -29880,7 +29879,7 @@
       <c r="AE293" s="140"/>
       <c r="AF293" s="140"/>
     </row>
-    <row r="294" spans="1:32" ht="16" hidden="1">
+    <row r="294" spans="1:32" ht="16">
       <c r="A294" s="140">
         <v>287</v>
       </c>
@@ -29957,7 +29956,7 @@
       <c r="AE294" s="140"/>
       <c r="AF294" s="140"/>
     </row>
-    <row r="295" spans="1:32" ht="16" hidden="1">
+    <row r="295" spans="1:32" ht="16">
       <c r="A295" s="140">
         <v>288</v>
       </c>
@@ -30032,7 +30031,7 @@
       <c r="AE295" s="140"/>
       <c r="AF295" s="140"/>
     </row>
-    <row r="296" spans="1:32" ht="16" hidden="1">
+    <row r="296" spans="1:32" ht="16">
       <c r="A296" s="140">
         <v>289</v>
       </c>
@@ -30104,7 +30103,7 @@
       <c r="AE296" s="140"/>
       <c r="AF296" s="140"/>
     </row>
-    <row r="297" spans="1:32" ht="16" hidden="1">
+    <row r="297" spans="1:32" ht="16">
       <c r="A297" s="140">
         <v>290</v>
       </c>
@@ -30176,7 +30175,7 @@
       <c r="AE297" s="140"/>
       <c r="AF297" s="140"/>
     </row>
-    <row r="298" spans="1:32" ht="16" hidden="1">
+    <row r="298" spans="1:32" ht="16">
       <c r="A298" s="140">
         <v>291</v>
       </c>
@@ -30248,7 +30247,7 @@
       <c r="AE298" s="140"/>
       <c r="AF298" s="140"/>
     </row>
-    <row r="299" spans="1:32" ht="16" hidden="1">
+    <row r="299" spans="1:32" ht="16">
       <c r="A299" s="140">
         <v>292</v>
       </c>
@@ -30320,7 +30319,7 @@
       <c r="AE299" s="140"/>
       <c r="AF299" s="140"/>
     </row>
-    <row r="300" spans="1:32" ht="16" hidden="1">
+    <row r="300" spans="1:32" ht="16">
       <c r="A300" s="140">
         <v>293</v>
       </c>
@@ -30392,7 +30391,7 @@
       <c r="AE300" s="140"/>
       <c r="AF300" s="140"/>
     </row>
-    <row r="301" spans="1:32" ht="16" hidden="1">
+    <row r="301" spans="1:32" ht="16">
       <c r="A301" s="140">
         <v>294</v>
       </c>
@@ -30464,7 +30463,7 @@
       <c r="AE301" s="140"/>
       <c r="AF301" s="140"/>
     </row>
-    <row r="302" spans="1:32" ht="16" hidden="1">
+    <row r="302" spans="1:32" ht="16">
       <c r="A302" s="140">
         <v>295</v>
       </c>
@@ -30536,7 +30535,7 @@
       <c r="AE302" s="140"/>
       <c r="AF302" s="140"/>
     </row>
-    <row r="303" spans="1:32" ht="16" hidden="1">
+    <row r="303" spans="1:32" ht="16">
       <c r="A303" s="140">
         <v>296</v>
       </c>
@@ -30608,7 +30607,7 @@
       <c r="AE303" s="140"/>
       <c r="AF303" s="140"/>
     </row>
-    <row r="304" spans="1:32" ht="16" hidden="1">
+    <row r="304" spans="1:32" ht="16">
       <c r="A304" s="140">
         <v>297</v>
       </c>
@@ -30680,7 +30679,7 @@
       <c r="AE304" s="140"/>
       <c r="AF304" s="140"/>
     </row>
-    <row r="305" spans="1:32" ht="16" hidden="1">
+    <row r="305" spans="1:32" ht="16">
       <c r="A305" s="140">
         <v>298</v>
       </c>
@@ -30752,7 +30751,7 @@
       <c r="AE305" s="140"/>
       <c r="AF305" s="140"/>
     </row>
-    <row r="306" spans="1:32" ht="16" hidden="1">
+    <row r="306" spans="1:32" ht="16">
       <c r="A306" s="140">
         <v>299</v>
       </c>
@@ -30824,7 +30823,7 @@
       <c r="AE306" s="140"/>
       <c r="AF306" s="140"/>
     </row>
-    <row r="307" spans="1:32" ht="16" hidden="1">
+    <row r="307" spans="1:32" ht="16">
       <c r="A307" s="140">
         <v>300</v>
       </c>
@@ -30896,7 +30895,7 @@
       <c r="AE307" s="140"/>
       <c r="AF307" s="140"/>
     </row>
-    <row r="308" spans="1:32" ht="16" hidden="1">
+    <row r="308" spans="1:32" ht="16">
       <c r="A308" s="140">
         <v>301</v>
       </c>
@@ -30968,7 +30967,7 @@
       <c r="AE308" s="140"/>
       <c r="AF308" s="140"/>
     </row>
-    <row r="309" spans="1:32" ht="16" hidden="1">
+    <row r="309" spans="1:32" ht="16">
       <c r="A309" s="140">
         <v>302</v>
       </c>
@@ -31040,7 +31039,7 @@
       <c r="AE309" s="140"/>
       <c r="AF309" s="140"/>
     </row>
-    <row r="310" spans="1:32" ht="16" hidden="1">
+    <row r="310" spans="1:32" ht="16">
       <c r="A310" s="140">
         <v>303</v>
       </c>
@@ -31112,7 +31111,7 @@
       <c r="AE310" s="140"/>
       <c r="AF310" s="140"/>
     </row>
-    <row r="311" spans="1:32" ht="16" hidden="1">
+    <row r="311" spans="1:32" ht="16">
       <c r="A311" s="140">
         <v>304</v>
       </c>
@@ -31184,7 +31183,7 @@
       <c r="AE311" s="140"/>
       <c r="AF311" s="140"/>
     </row>
-    <row r="312" spans="1:32" ht="16" hidden="1">
+    <row r="312" spans="1:32" ht="16">
       <c r="A312" s="140">
         <v>305</v>
       </c>
@@ -31256,7 +31255,7 @@
       <c r="AE312" s="140"/>
       <c r="AF312" s="140"/>
     </row>
-    <row r="313" spans="1:32" ht="16" hidden="1">
+    <row r="313" spans="1:32" ht="16">
       <c r="A313" s="140">
         <v>306</v>
       </c>
@@ -31328,7 +31327,7 @@
       <c r="AE313" s="140"/>
       <c r="AF313" s="140"/>
     </row>
-    <row r="314" spans="1:32" ht="16" hidden="1">
+    <row r="314" spans="1:32" ht="16">
       <c r="A314" s="140">
         <v>307</v>
       </c>
@@ -31400,7 +31399,7 @@
       <c r="AE314" s="140"/>
       <c r="AF314" s="140"/>
     </row>
-    <row r="315" spans="1:32" ht="16" hidden="1">
+    <row r="315" spans="1:32" ht="16">
       <c r="A315" s="140">
         <v>308</v>
       </c>
@@ -31472,7 +31471,7 @@
       <c r="AE315" s="140"/>
       <c r="AF315" s="140"/>
     </row>
-    <row r="316" spans="1:32" ht="16" hidden="1">
+    <row r="316" spans="1:32" ht="16">
       <c r="A316" s="140">
         <v>309</v>
       </c>
@@ -31544,7 +31543,7 @@
       <c r="AE316" s="140"/>
       <c r="AF316" s="140"/>
     </row>
-    <row r="317" spans="1:32" ht="16" hidden="1">
+    <row r="317" spans="1:32" ht="16">
       <c r="A317" s="140">
         <v>310</v>
       </c>
@@ -31616,7 +31615,7 @@
       <c r="AE317" s="140"/>
       <c r="AF317" s="140"/>
     </row>
-    <row r="318" spans="1:32" ht="16" hidden="1">
+    <row r="318" spans="1:32" ht="16">
       <c r="A318" s="140">
         <v>311</v>
       </c>
@@ -31688,7 +31687,7 @@
       <c r="AE318" s="140"/>
       <c r="AF318" s="140"/>
     </row>
-    <row r="319" spans="1:32" ht="16" hidden="1">
+    <row r="319" spans="1:32" ht="16">
       <c r="A319" s="140">
         <v>312</v>
       </c>
@@ -31760,7 +31759,7 @@
       <c r="AE319" s="140"/>
       <c r="AF319" s="140"/>
     </row>
-    <row r="320" spans="1:32" ht="16" hidden="1">
+    <row r="320" spans="1:32" ht="16">
       <c r="A320" s="140">
         <v>313</v>
       </c>
@@ -31834,7 +31833,7 @@
       <c r="AE320" s="140"/>
       <c r="AF320" s="140"/>
     </row>
-    <row r="321" spans="1:32" ht="16" hidden="1">
+    <row r="321" spans="1:32" ht="16">
       <c r="A321" s="140">
         <v>314</v>
       </c>
@@ -31906,7 +31905,7 @@
       <c r="AE321" s="140"/>
       <c r="AF321" s="140"/>
     </row>
-    <row r="322" spans="1:32" ht="16" hidden="1">
+    <row r="322" spans="1:32" ht="16">
       <c r="A322" s="140">
         <v>315</v>
       </c>
@@ -31980,7 +31979,7 @@
       <c r="AE322" s="140"/>
       <c r="AF322" s="140"/>
     </row>
-    <row r="323" spans="1:32" ht="16" hidden="1">
+    <row r="323" spans="1:32" ht="16">
       <c r="A323" s="140">
         <v>316</v>
       </c>
@@ -32052,7 +32051,7 @@
       <c r="AE323" s="140"/>
       <c r="AF323" s="140"/>
     </row>
-    <row r="324" spans="1:32" ht="16" hidden="1">
+    <row r="324" spans="1:32" ht="16">
       <c r="A324" s="140">
         <v>317</v>
       </c>
@@ -32126,7 +32125,7 @@
       <c r="AE324" s="140"/>
       <c r="AF324" s="140"/>
     </row>
-    <row r="325" spans="1:32" ht="16" hidden="1">
+    <row r="325" spans="1:32" ht="16">
       <c r="A325" s="140">
         <v>318</v>
       </c>
@@ -32200,7 +32199,7 @@
       <c r="AE325" s="140"/>
       <c r="AF325" s="140"/>
     </row>
-    <row r="326" spans="1:32" ht="16" hidden="1">
+    <row r="326" spans="1:32" ht="16">
       <c r="A326" s="140">
         <v>319</v>
       </c>
@@ -32272,7 +32271,7 @@
       <c r="AE326" s="140"/>
       <c r="AF326" s="140"/>
     </row>
-    <row r="327" spans="1:32" ht="16" hidden="1">
+    <row r="327" spans="1:32" ht="16">
       <c r="A327" s="140">
         <v>320</v>
       </c>
@@ -32344,7 +32343,7 @@
       <c r="AE327" s="140"/>
       <c r="AF327" s="140"/>
     </row>
-    <row r="328" spans="1:32" ht="16" hidden="1">
+    <row r="328" spans="1:32" ht="16">
       <c r="A328" s="140">
         <v>321</v>
       </c>
@@ -32416,7 +32415,7 @@
       <c r="AE328" s="140"/>
       <c r="AF328" s="140"/>
     </row>
-    <row r="329" spans="1:32" ht="16" hidden="1">
+    <row r="329" spans="1:32" ht="16">
       <c r="A329" s="140">
         <v>322</v>
       </c>
@@ -32488,7 +32487,7 @@
       <c r="AE329" s="140"/>
       <c r="AF329" s="140"/>
     </row>
-    <row r="330" spans="1:32" ht="16" hidden="1">
+    <row r="330" spans="1:32" ht="16">
       <c r="A330" s="140">
         <v>323</v>
       </c>
@@ -32560,7 +32559,7 @@
       <c r="AE330" s="140"/>
       <c r="AF330" s="140"/>
     </row>
-    <row r="331" spans="1:32" ht="16" hidden="1">
+    <row r="331" spans="1:32" ht="16">
       <c r="A331" s="140">
         <v>324</v>
       </c>
@@ -32632,7 +32631,7 @@
       <c r="AE331" s="140"/>
       <c r="AF331" s="140"/>
     </row>
-    <row r="332" spans="1:32" ht="16" hidden="1">
+    <row r="332" spans="1:32" ht="16">
       <c r="A332" s="140">
         <v>325</v>
       </c>
@@ -32704,7 +32703,7 @@
       <c r="AE332" s="140"/>
       <c r="AF332" s="140"/>
     </row>
-    <row r="333" spans="1:32" ht="16" hidden="1">
+    <row r="333" spans="1:32" ht="16">
       <c r="A333" s="140">
         <v>326</v>
       </c>
@@ -32776,7 +32775,7 @@
       <c r="AE333" s="140"/>
       <c r="AF333" s="140"/>
     </row>
-    <row r="334" spans="1:32" ht="16" hidden="1">
+    <row r="334" spans="1:32" ht="16">
       <c r="A334" s="140">
         <v>327</v>
       </c>
@@ -32848,7 +32847,7 @@
       <c r="AE334" s="140"/>
       <c r="AF334" s="140"/>
     </row>
-    <row r="335" spans="1:32" ht="16" hidden="1">
+    <row r="335" spans="1:32" ht="16">
       <c r="A335" s="140">
         <v>328</v>
       </c>
@@ -32918,7 +32917,7 @@
       <c r="AE335" s="140"/>
       <c r="AF335" s="140"/>
     </row>
-    <row r="336" spans="1:32" ht="16" hidden="1">
+    <row r="336" spans="1:32" ht="16">
       <c r="A336" s="140">
         <v>329</v>
       </c>
@@ -32988,7 +32987,7 @@
       <c r="AE336" s="140"/>
       <c r="AF336" s="140"/>
     </row>
-    <row r="337" spans="1:32" ht="16" hidden="1">
+    <row r="337" spans="1:32" ht="16">
       <c r="A337" s="140">
         <v>330</v>
       </c>
@@ -33058,7 +33057,7 @@
       <c r="AE337" s="140"/>
       <c r="AF337" s="140"/>
     </row>
-    <row r="338" spans="1:32" ht="16" hidden="1">
+    <row r="338" spans="1:32" ht="16">
       <c r="A338" s="140">
         <v>331</v>
       </c>
@@ -33128,7 +33127,7 @@
       <c r="AE338" s="140"/>
       <c r="AF338" s="140"/>
     </row>
-    <row r="339" spans="1:32" ht="16" hidden="1">
+    <row r="339" spans="1:32" ht="16">
       <c r="A339" s="140">
         <v>332</v>
       </c>
@@ -33198,7 +33197,7 @@
       <c r="AE339" s="140"/>
       <c r="AF339" s="140"/>
     </row>
-    <row r="340" spans="1:32" ht="16" hidden="1">
+    <row r="340" spans="1:32" ht="16">
       <c r="A340" s="140">
         <v>333</v>
       </c>
@@ -33268,7 +33267,7 @@
       <c r="AE340" s="140"/>
       <c r="AF340" s="140"/>
     </row>
-    <row r="341" spans="1:32" ht="16" hidden="1">
+    <row r="341" spans="1:32" ht="16">
       <c r="A341" s="140">
         <v>334</v>
       </c>
@@ -33338,7 +33337,7 @@
       <c r="AE341" s="140"/>
       <c r="AF341" s="140"/>
     </row>
-    <row r="342" spans="1:32" ht="16" hidden="1">
+    <row r="342" spans="1:32" ht="16">
       <c r="A342" s="140">
         <v>335</v>
       </c>
@@ -33412,7 +33411,7 @@
       <c r="AE342" s="151"/>
       <c r="AF342" s="151"/>
     </row>
-    <row r="343" spans="1:32" ht="16" hidden="1">
+    <row r="343" spans="1:32" ht="16">
       <c r="A343" s="140">
         <v>336</v>
       </c>
@@ -33484,7 +33483,7 @@
       <c r="AE343" s="151"/>
       <c r="AF343" s="151"/>
     </row>
-    <row r="344" spans="1:32" ht="16" hidden="1">
+    <row r="344" spans="1:32" ht="16">
       <c r="A344" s="140">
         <v>337</v>
       </c>
@@ -33556,7 +33555,7 @@
       <c r="AE344" s="151"/>
       <c r="AF344" s="151"/>
     </row>
-    <row r="345" spans="1:32" ht="16" hidden="1">
+    <row r="345" spans="1:32" ht="16">
       <c r="A345" s="140">
         <v>338</v>
       </c>
@@ -33628,7 +33627,7 @@
       <c r="AE345" s="151"/>
       <c r="AF345" s="151"/>
     </row>
-    <row r="346" spans="1:32" ht="16" hidden="1">
+    <row r="346" spans="1:32" ht="16">
       <c r="A346" s="140">
         <v>339</v>
       </c>
@@ -33700,7 +33699,7 @@
       <c r="AE346" s="151"/>
       <c r="AF346" s="151"/>
     </row>
-    <row r="347" spans="1:32" ht="16" hidden="1">
+    <row r="347" spans="1:32" ht="16">
       <c r="A347" s="140">
         <v>340</v>
       </c>
@@ -33772,7 +33771,7 @@
       <c r="AE347" s="151"/>
       <c r="AF347" s="151"/>
     </row>
-    <row r="348" spans="1:32" ht="16" hidden="1">
+    <row r="348" spans="1:32" ht="16">
       <c r="A348" s="140">
         <v>341</v>
       </c>
@@ -33844,7 +33843,7 @@
       <c r="AE348" s="151"/>
       <c r="AF348" s="151"/>
     </row>
-    <row r="349" spans="1:32" ht="16" hidden="1">
+    <row r="349" spans="1:32" ht="16">
       <c r="A349" s="140">
         <v>342</v>
       </c>
@@ -33916,7 +33915,7 @@
       <c r="AE349" s="151"/>
       <c r="AF349" s="151"/>
     </row>
-    <row r="350" spans="1:32" ht="16" hidden="1">
+    <row r="350" spans="1:32" ht="16">
       <c r="A350" s="140">
         <v>343</v>
       </c>
@@ -33988,7 +33987,7 @@
       <c r="AE350" s="151"/>
       <c r="AF350" s="151"/>
     </row>
-    <row r="351" spans="1:32" ht="16" hidden="1">
+    <row r="351" spans="1:32" ht="16">
       <c r="A351" s="140">
         <v>344</v>
       </c>
@@ -34060,7 +34059,7 @@
       <c r="AE351" s="151"/>
       <c r="AF351" s="151"/>
     </row>
-    <row r="352" spans="1:32" ht="16" hidden="1">
+    <row r="352" spans="1:32" ht="16">
       <c r="A352" s="140">
         <v>345</v>
       </c>
@@ -34132,7 +34131,7 @@
       <c r="AE352" s="151"/>
       <c r="AF352" s="151"/>
     </row>
-    <row r="353" spans="1:32" ht="16" hidden="1">
+    <row r="353" spans="1:32" ht="16">
       <c r="A353" s="140">
         <v>346</v>
       </c>
@@ -34204,7 +34203,7 @@
       <c r="AE353" s="151"/>
       <c r="AF353" s="151"/>
     </row>
-    <row r="354" spans="1:32" ht="16" hidden="1">
+    <row r="354" spans="1:32" ht="16">
       <c r="A354" s="140">
         <v>347</v>
       </c>
@@ -34276,7 +34275,7 @@
       <c r="AE354" s="151"/>
       <c r="AF354" s="151"/>
     </row>
-    <row r="355" spans="1:32" ht="16" hidden="1">
+    <row r="355" spans="1:32" ht="16">
       <c r="A355" s="140">
         <v>348</v>
       </c>
@@ -34348,7 +34347,7 @@
       <c r="AE355" s="151"/>
       <c r="AF355" s="151"/>
     </row>
-    <row r="356" spans="1:32" ht="16" hidden="1">
+    <row r="356" spans="1:32" ht="16">
       <c r="A356" s="140">
         <v>349</v>
       </c>
@@ -34420,7 +34419,7 @@
       <c r="AE356" s="151"/>
       <c r="AF356" s="151"/>
     </row>
-    <row r="357" spans="1:32" ht="16" hidden="1">
+    <row r="357" spans="1:32" ht="16">
       <c r="A357" s="140">
         <v>350</v>
       </c>
@@ -34492,7 +34491,7 @@
       <c r="AE357" s="151"/>
       <c r="AF357" s="151"/>
     </row>
-    <row r="358" spans="1:32" ht="16" hidden="1">
+    <row r="358" spans="1:32" ht="16">
       <c r="A358" s="140">
         <v>351</v>
       </c>
@@ -34564,7 +34563,7 @@
       <c r="AE358" s="151"/>
       <c r="AF358" s="151"/>
     </row>
-    <row r="359" spans="1:32" ht="16" hidden="1">
+    <row r="359" spans="1:32" ht="16">
       <c r="A359" s="140">
         <v>352</v>
       </c>
@@ -34636,7 +34635,7 @@
       <c r="AE359" s="151"/>
       <c r="AF359" s="151"/>
     </row>
-    <row r="360" spans="1:32" ht="16" hidden="1">
+    <row r="360" spans="1:32" ht="16">
       <c r="A360" s="140">
         <v>353</v>
       </c>
@@ -34707,7 +34706,7 @@
       <c r="AE360" s="151"/>
       <c r="AF360" s="151"/>
     </row>
-    <row r="361" spans="1:32" ht="16" hidden="1">
+    <row r="361" spans="1:32" ht="16">
       <c r="A361" s="140">
         <v>354</v>
       </c>
@@ -34778,7 +34777,7 @@
       <c r="AE361" s="151"/>
       <c r="AF361" s="151"/>
     </row>
-    <row r="362" spans="1:32" ht="16" hidden="1">
+    <row r="362" spans="1:32" ht="16">
       <c r="A362" s="140">
         <v>355</v>
       </c>
@@ -34849,7 +34848,7 @@
       <c r="AE362" s="151"/>
       <c r="AF362" s="151"/>
     </row>
-    <row r="363" spans="1:32" ht="16" hidden="1">
+    <row r="363" spans="1:32" ht="16">
       <c r="A363" s="140">
         <v>356</v>
       </c>
@@ -34920,7 +34919,7 @@
       <c r="AE363" s="151"/>
       <c r="AF363" s="151"/>
     </row>
-    <row r="364" spans="1:32" ht="16" hidden="1">
+    <row r="364" spans="1:32" ht="16">
       <c r="A364" s="140">
         <v>357</v>
       </c>
@@ -34991,7 +34990,7 @@
       <c r="AE364" s="151"/>
       <c r="AF364" s="151"/>
     </row>
-    <row r="365" spans="1:32" ht="16" hidden="1">
+    <row r="365" spans="1:32" ht="16">
       <c r="A365" s="140">
         <v>358</v>
       </c>
@@ -35062,7 +35061,7 @@
       <c r="AE365" s="151"/>
       <c r="AF365" s="151"/>
     </row>
-    <row r="366" spans="1:32" ht="16" hidden="1">
+    <row r="366" spans="1:32" ht="16">
       <c r="A366" s="140">
         <v>359</v>
       </c>
@@ -35133,7 +35132,7 @@
       <c r="AE366" s="151"/>
       <c r="AF366" s="151"/>
     </row>
-    <row r="367" spans="1:32" ht="16" hidden="1">
+    <row r="367" spans="1:32" ht="16">
       <c r="A367" s="140">
         <v>360</v>
       </c>
@@ -35204,7 +35203,7 @@
       <c r="AE367" s="151"/>
       <c r="AF367" s="151"/>
     </row>
-    <row r="368" spans="1:32" ht="16" hidden="1">
+    <row r="368" spans="1:32" ht="16">
       <c r="A368" s="140">
         <v>361</v>
       </c>
@@ -35275,7 +35274,7 @@
       <c r="AE368" s="151"/>
       <c r="AF368" s="151"/>
     </row>
-    <row r="369" spans="1:32" ht="16" hidden="1">
+    <row r="369" spans="1:32" ht="16">
       <c r="A369" s="140">
         <v>362</v>
       </c>
@@ -35346,7 +35345,7 @@
       <c r="AE369" s="151"/>
       <c r="AF369" s="151"/>
     </row>
-    <row r="370" spans="1:32" ht="16" hidden="1">
+    <row r="370" spans="1:32" ht="16">
       <c r="A370" s="140">
         <v>363</v>
       </c>
@@ -35417,7 +35416,7 @@
       <c r="AE370" s="151"/>
       <c r="AF370" s="151"/>
     </row>
-    <row r="371" spans="1:32" ht="16" hidden="1">
+    <row r="371" spans="1:32" ht="16">
       <c r="A371" s="140">
         <v>364</v>
       </c>
@@ -35486,7 +35485,7 @@
       <c r="AE371" s="151"/>
       <c r="AF371" s="151"/>
     </row>
-    <row r="372" spans="1:32" ht="16" hidden="1">
+    <row r="372" spans="1:32" ht="16">
       <c r="A372" s="140">
         <v>365</v>
       </c>
@@ -35557,7 +35556,7 @@
       <c r="AE372" s="151"/>
       <c r="AF372" s="151"/>
     </row>
-    <row r="373" spans="1:32" ht="16" hidden="1">
+    <row r="373" spans="1:32" ht="16">
       <c r="A373" s="140">
         <v>366</v>
       </c>
@@ -35628,7 +35627,7 @@
       <c r="AE373" s="151"/>
       <c r="AF373" s="151"/>
     </row>
-    <row r="374" spans="1:32" ht="16" hidden="1">
+    <row r="374" spans="1:32" ht="16">
       <c r="A374" s="140">
         <v>367</v>
       </c>
@@ -35699,7 +35698,7 @@
       <c r="AE374" s="151"/>
       <c r="AF374" s="151"/>
     </row>
-    <row r="375" spans="1:32" ht="16" hidden="1">
+    <row r="375" spans="1:32" ht="16">
       <c r="A375" s="140">
         <v>368</v>
       </c>
@@ -35770,7 +35769,7 @@
       <c r="AE375" s="151"/>
       <c r="AF375" s="151"/>
     </row>
-    <row r="376" spans="1:32" ht="16" hidden="1">
+    <row r="376" spans="1:32" ht="16">
       <c r="A376" s="140">
         <v>369</v>
       </c>
@@ -35841,7 +35840,7 @@
       <c r="AE376" s="151"/>
       <c r="AF376" s="151"/>
     </row>
-    <row r="377" spans="1:32" ht="16" hidden="1">
+    <row r="377" spans="1:32" ht="16">
       <c r="A377" s="140">
         <v>370</v>
       </c>
@@ -35908,7 +35907,7 @@
       <c r="AE377" s="151"/>
       <c r="AF377" s="151"/>
     </row>
-    <row r="378" spans="1:32" ht="16" hidden="1">
+    <row r="378" spans="1:32" ht="16">
       <c r="A378" s="140">
         <v>371</v>
       </c>
@@ -35979,7 +35978,7 @@
       <c r="AE378" s="151"/>
       <c r="AF378" s="151"/>
     </row>
-    <row r="379" spans="1:32" ht="16" hidden="1">
+    <row r="379" spans="1:32" ht="16">
       <c r="A379" s="140">
         <v>372</v>
       </c>
@@ -36050,7 +36049,7 @@
       <c r="AE379" s="151"/>
       <c r="AF379" s="151"/>
     </row>
-    <row r="380" spans="1:32" ht="16" hidden="1">
+    <row r="380" spans="1:32" ht="16">
       <c r="A380" s="140">
         <v>373</v>
       </c>
@@ -36121,7 +36120,7 @@
       <c r="AE380" s="151"/>
       <c r="AF380" s="151"/>
     </row>
-    <row r="381" spans="1:32" ht="16" hidden="1">
+    <row r="381" spans="1:32" ht="16">
       <c r="A381" s="140">
         <v>374</v>
       </c>
@@ -36188,7 +36187,7 @@
       <c r="AE381" s="151"/>
       <c r="AF381" s="151"/>
     </row>
-    <row r="382" spans="1:32" ht="16" hidden="1">
+    <row r="382" spans="1:32" ht="16">
       <c r="A382" s="140">
         <v>375</v>
       </c>
@@ -36255,7 +36254,7 @@
       <c r="AE382" s="151"/>
       <c r="AF382" s="151"/>
     </row>
-    <row r="383" spans="1:32" ht="16" hidden="1">
+    <row r="383" spans="1:32" ht="16">
       <c r="A383" s="140">
         <v>376</v>
       </c>
@@ -36322,7 +36321,7 @@
       <c r="AE383" s="151"/>
       <c r="AF383" s="151"/>
     </row>
-    <row r="384" spans="1:32" ht="16" hidden="1">
+    <row r="384" spans="1:32" ht="16">
       <c r="A384" s="140">
         <v>377</v>
       </c>
@@ -36389,7 +36388,7 @@
       <c r="AE384" s="151"/>
       <c r="AF384" s="151"/>
     </row>
-    <row r="385" spans="1:32" ht="16" hidden="1">
+    <row r="385" spans="1:32" ht="16">
       <c r="A385" s="140">
         <v>378</v>
       </c>
@@ -36456,7 +36455,7 @@
       <c r="AE385" s="151"/>
       <c r="AF385" s="151"/>
     </row>
-    <row r="386" spans="1:32" ht="16" hidden="1">
+    <row r="386" spans="1:32" ht="16">
       <c r="A386" s="140">
         <v>379</v>
       </c>
@@ -36523,7 +36522,7 @@
       <c r="AE386" s="151"/>
       <c r="AF386" s="151"/>
     </row>
-    <row r="387" spans="1:32" ht="16" hidden="1">
+    <row r="387" spans="1:32" ht="16">
       <c r="A387" s="140">
         <v>380</v>
       </c>
@@ -36590,7 +36589,7 @@
       <c r="AE387" s="151"/>
       <c r="AF387" s="151"/>
     </row>
-    <row r="388" spans="1:32" ht="16" hidden="1">
+    <row r="388" spans="1:32" ht="16">
       <c r="A388" s="140">
         <v>381</v>
       </c>
@@ -36657,7 +36656,7 @@
       <c r="AE388" s="151"/>
       <c r="AF388" s="151"/>
     </row>
-    <row r="389" spans="1:32" ht="16" hidden="1">
+    <row r="389" spans="1:32" ht="16">
       <c r="A389" s="140">
         <v>382</v>
       </c>
@@ -36728,7 +36727,7 @@
       <c r="AE389" s="151"/>
       <c r="AF389" s="151"/>
     </row>
-    <row r="390" spans="1:32" ht="16" hidden="1">
+    <row r="390" spans="1:32" ht="16">
       <c r="A390" s="140">
         <v>383</v>
       </c>
@@ -36797,7 +36796,7 @@
       <c r="AE390" s="151"/>
       <c r="AF390" s="151"/>
     </row>
-    <row r="391" spans="1:32" ht="16" hidden="1">
+    <row r="391" spans="1:32" ht="16">
       <c r="A391" s="140">
         <v>384</v>
       </c>
@@ -36864,7 +36863,7 @@
       <c r="AE391" s="151"/>
       <c r="AF391" s="151"/>
     </row>
-    <row r="392" spans="1:32" ht="16" hidden="1">
+    <row r="392" spans="1:32" ht="16">
       <c r="A392" s="140">
         <v>385</v>
       </c>
@@ -36933,7 +36932,7 @@
       <c r="AE392" s="151"/>
       <c r="AF392" s="151"/>
     </row>
-    <row r="393" spans="1:32" ht="16" hidden="1">
+    <row r="393" spans="1:32" ht="16">
       <c r="A393" s="140">
         <v>386</v>
       </c>
@@ -37002,7 +37001,7 @@
       <c r="AE393" s="151"/>
       <c r="AF393" s="151"/>
     </row>
-    <row r="394" spans="1:32" ht="16" hidden="1">
+    <row r="394" spans="1:32" ht="16">
       <c r="A394" s="140">
         <v>387</v>
       </c>
@@ -37071,7 +37070,7 @@
       <c r="AE394" s="151"/>
       <c r="AF394" s="151"/>
     </row>
-    <row r="395" spans="1:32" ht="16" hidden="1">
+    <row r="395" spans="1:32" ht="16">
       <c r="A395" s="140">
         <v>388</v>
       </c>
@@ -37140,7 +37139,7 @@
       <c r="AE395" s="151"/>
       <c r="AF395" s="151"/>
     </row>
-    <row r="396" spans="1:32" ht="16" hidden="1">
+    <row r="396" spans="1:32" ht="16">
       <c r="A396" s="140">
         <v>389</v>
       </c>
@@ -37209,7 +37208,7 @@
       <c r="AE396" s="151"/>
       <c r="AF396" s="151"/>
     </row>
-    <row r="397" spans="1:32" ht="16" hidden="1">
+    <row r="397" spans="1:32" ht="16">
       <c r="A397" s="140">
         <v>390</v>
       </c>
@@ -37278,7 +37277,7 @@
       <c r="AE397" s="151"/>
       <c r="AF397" s="151"/>
     </row>
-    <row r="398" spans="1:32" ht="16" hidden="1">
+    <row r="398" spans="1:32" ht="16">
       <c r="A398" s="140">
         <v>391</v>
       </c>
@@ -37347,7 +37346,7 @@
       <c r="AE398" s="151"/>
       <c r="AF398" s="151"/>
     </row>
-    <row r="399" spans="1:32" ht="16" hidden="1">
+    <row r="399" spans="1:32" ht="16">
       <c r="A399" s="140">
         <v>392</v>
       </c>
@@ -37416,7 +37415,7 @@
       <c r="AE399" s="151"/>
       <c r="AF399" s="151"/>
     </row>
-    <row r="400" spans="1:32" ht="16" hidden="1">
+    <row r="400" spans="1:32" ht="16">
       <c r="A400" s="140">
         <v>393</v>
       </c>
@@ -37485,7 +37484,7 @@
       <c r="AE400" s="151"/>
       <c r="AF400" s="151"/>
     </row>
-    <row r="401" spans="1:32" ht="16" hidden="1">
+    <row r="401" spans="1:32" ht="16">
       <c r="A401" s="140">
         <v>394</v>
       </c>
@@ -37554,7 +37553,7 @@
       <c r="AE401" s="151"/>
       <c r="AF401" s="151"/>
     </row>
-    <row r="402" spans="1:32" ht="16" hidden="1">
+    <row r="402" spans="1:32" ht="16">
       <c r="A402" s="140">
         <v>395</v>
       </c>
@@ -37623,7 +37622,7 @@
       <c r="AE402" s="151"/>
       <c r="AF402" s="151"/>
     </row>
-    <row r="403" spans="1:32" ht="16" hidden="1">
+    <row r="403" spans="1:32" ht="16">
       <c r="A403" s="140">
         <v>396</v>
       </c>
@@ -37692,7 +37691,7 @@
       <c r="AE403" s="151"/>
       <c r="AF403" s="151"/>
     </row>
-    <row r="404" spans="1:32" ht="16" hidden="1">
+    <row r="404" spans="1:32" ht="16">
       <c r="A404" s="140">
         <v>397</v>
       </c>
@@ -37761,7 +37760,7 @@
       <c r="AE404" s="151"/>
       <c r="AF404" s="151"/>
     </row>
-    <row r="405" spans="1:32" ht="16" hidden="1">
+    <row r="405" spans="1:32" ht="16">
       <c r="A405" s="140">
         <v>398</v>
       </c>
@@ -37830,7 +37829,7 @@
       <c r="AE405" s="151"/>
       <c r="AF405" s="151"/>
     </row>
-    <row r="406" spans="1:32" ht="16" hidden="1">
+    <row r="406" spans="1:32" ht="16">
       <c r="A406" s="140">
         <v>399</v>
       </c>
@@ -37899,7 +37898,7 @@
       <c r="AE406" s="151"/>
       <c r="AF406" s="151"/>
     </row>
-    <row r="407" spans="1:32" ht="16" hidden="1">
+    <row r="407" spans="1:32" ht="16">
       <c r="A407" s="140">
         <v>400</v>
       </c>
@@ -37968,7 +37967,7 @@
       <c r="AE407" s="151"/>
       <c r="AF407" s="151"/>
     </row>
-    <row r="408" spans="1:32" ht="16" hidden="1">
+    <row r="408" spans="1:32" ht="16">
       <c r="A408" s="140">
         <v>401</v>
       </c>
@@ -38037,7 +38036,7 @@
       <c r="AE408" s="151"/>
       <c r="AF408" s="151"/>
     </row>
-    <row r="409" spans="1:32" ht="16" hidden="1" customHeight="1">
+    <row r="409" spans="1:32" ht="16" customHeight="1">
       <c r="A409" s="140">
         <v>402</v>
       </c>
@@ -38104,7 +38103,7 @@
       <c r="AE409" s="151"/>
       <c r="AF409" s="151"/>
     </row>
-    <row r="410" spans="1:32" ht="16" hidden="1">
+    <row r="410" spans="1:32" ht="16">
       <c r="A410" s="140">
         <v>403</v>
       </c>
@@ -38171,7 +38170,7 @@
       <c r="AE410" s="151"/>
       <c r="AF410" s="151"/>
     </row>
-    <row r="411" spans="1:32" ht="16" hidden="1">
+    <row r="411" spans="1:32" ht="16">
       <c r="A411" s="140">
         <v>404</v>
       </c>
@@ -38238,7 +38237,7 @@
       <c r="AE411" s="151"/>
       <c r="AF411" s="151"/>
     </row>
-    <row r="412" spans="1:32" ht="16" hidden="1">
+    <row r="412" spans="1:32" ht="16">
       <c r="A412" s="140">
         <v>405</v>
       </c>
@@ -38305,7 +38304,7 @@
       <c r="AE412" s="151"/>
       <c r="AF412" s="151"/>
     </row>
-    <row r="413" spans="1:32" ht="16" hidden="1">
+    <row r="413" spans="1:32" ht="16">
       <c r="A413" s="140">
         <v>406</v>
       </c>
@@ -38372,7 +38371,7 @@
       <c r="AE413" s="151"/>
       <c r="AF413" s="151"/>
     </row>
-    <row r="414" spans="1:32" ht="16" hidden="1">
+    <row r="414" spans="1:32" ht="16">
       <c r="A414" s="140">
         <v>407</v>
       </c>
@@ -38439,7 +38438,7 @@
       <c r="AE414" s="151"/>
       <c r="AF414" s="151"/>
     </row>
-    <row r="415" spans="1:32" ht="16" hidden="1">
+    <row r="415" spans="1:32" ht="16">
       <c r="A415" s="140">
         <v>408</v>
       </c>
@@ -38506,7 +38505,7 @@
       <c r="AE415" s="151"/>
       <c r="AF415" s="151"/>
     </row>
-    <row r="416" spans="1:32" ht="16" hidden="1">
+    <row r="416" spans="1:32" ht="16">
       <c r="A416" s="140">
         <v>409</v>
       </c>
@@ -38575,7 +38574,7 @@
       <c r="AE416" s="151"/>
       <c r="AF416" s="151"/>
     </row>
-    <row r="417" spans="1:32" ht="16" hidden="1">
+    <row r="417" spans="1:32" ht="16">
       <c r="A417" s="140">
         <v>410</v>
       </c>
@@ -38644,7 +38643,7 @@
       <c r="AE417" s="151"/>
       <c r="AF417" s="151"/>
     </row>
-    <row r="418" spans="1:32" ht="16" hidden="1">
+    <row r="418" spans="1:32" ht="16">
       <c r="A418" s="140">
         <v>411</v>
       </c>
@@ -38713,7 +38712,7 @@
       <c r="AE418" s="151"/>
       <c r="AF418" s="151"/>
     </row>
-    <row r="419" spans="1:32" ht="16" hidden="1">
+    <row r="419" spans="1:32" ht="16">
       <c r="A419" s="140">
         <v>412</v>
       </c>
@@ -38782,7 +38781,7 @@
       <c r="AE419" s="151"/>
       <c r="AF419" s="151"/>
     </row>
-    <row r="420" spans="1:32" ht="16" hidden="1">
+    <row r="420" spans="1:32" ht="16">
       <c r="A420" s="140">
         <v>413</v>
       </c>
@@ -38851,7 +38850,7 @@
       <c r="AE420" s="151"/>
       <c r="AF420" s="151"/>
     </row>
-    <row r="421" spans="1:32" ht="16" hidden="1">
+    <row r="421" spans="1:32" ht="16">
       <c r="A421" s="140">
         <v>414</v>
       </c>
@@ -38920,7 +38919,7 @@
       <c r="AE421" s="151"/>
       <c r="AF421" s="151"/>
     </row>
-    <row r="422" spans="1:32" ht="16" hidden="1">
+    <row r="422" spans="1:32" ht="16">
       <c r="A422" s="140">
         <v>415</v>
       </c>
@@ -38989,7 +38988,7 @@
       <c r="AE422" s="151"/>
       <c r="AF422" s="151"/>
     </row>
-    <row r="423" spans="1:32" ht="16" hidden="1">
+    <row r="423" spans="1:32" ht="16">
       <c r="A423" s="140">
         <v>416</v>
       </c>
@@ -39076,7 +39075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:32" ht="16" hidden="1">
+    <row r="424" spans="1:32" ht="16">
       <c r="A424" s="140">
         <v>417</v>
       </c>
@@ -39145,7 +39144,7 @@
       <c r="AE424" s="151"/>
       <c r="AF424" s="151"/>
     </row>
-    <row r="425" spans="1:32" ht="16" hidden="1">
+    <row r="425" spans="1:32" ht="16">
       <c r="A425" s="140">
         <v>418</v>
       </c>
@@ -39224,7 +39223,7 @@
       <c r="AE425" s="151"/>
       <c r="AF425" s="151"/>
     </row>
-    <row r="426" spans="1:32" ht="16" hidden="1">
+    <row r="426" spans="1:32" ht="16">
       <c r="A426" s="140">
         <v>419</v>
       </c>
@@ -39303,7 +39302,7 @@
       <c r="AE426" s="151"/>
       <c r="AF426" s="151"/>
     </row>
-    <row r="427" spans="1:32" ht="16" hidden="1">
+    <row r="427" spans="1:32" ht="16">
       <c r="A427" s="140">
         <v>420</v>
       </c>
@@ -39382,7 +39381,7 @@
       <c r="AE427" s="151"/>
       <c r="AF427" s="151"/>
     </row>
-    <row r="428" spans="1:32" ht="16" hidden="1">
+    <row r="428" spans="1:32" ht="16">
       <c r="A428" s="140">
         <v>421</v>
       </c>
@@ -39451,7 +39450,7 @@
       <c r="AE428" s="151"/>
       <c r="AF428" s="151"/>
     </row>
-    <row r="429" spans="1:32" ht="16" hidden="1">
+    <row r="429" spans="1:32" ht="16">
       <c r="A429" s="140">
         <v>422</v>
       </c>
@@ -39520,7 +39519,7 @@
       <c r="AE429" s="151"/>
       <c r="AF429" s="151"/>
     </row>
-    <row r="430" spans="1:32" ht="16" hidden="1">
+    <row r="430" spans="1:32" ht="16">
       <c r="A430" s="140">
         <v>423</v>
       </c>
@@ -39589,7 +39588,7 @@
       <c r="AE430" s="151"/>
       <c r="AF430" s="151"/>
     </row>
-    <row r="431" spans="1:32" ht="16" hidden="1">
+    <row r="431" spans="1:32" ht="16">
       <c r="A431" s="140">
         <v>424</v>
       </c>
@@ -39658,7 +39657,7 @@
       <c r="AE431" s="151"/>
       <c r="AF431" s="151"/>
     </row>
-    <row r="432" spans="1:32" ht="16" hidden="1">
+    <row r="432" spans="1:32" ht="16">
       <c r="A432" s="140">
         <v>425</v>
       </c>
@@ -39727,7 +39726,7 @@
       <c r="AE432" s="151"/>
       <c r="AF432" s="151"/>
     </row>
-    <row r="433" spans="1:32" ht="16" hidden="1">
+    <row r="433" spans="1:32" ht="16">
       <c r="A433" s="140">
         <v>426</v>
       </c>
@@ -39796,7 +39795,7 @@
       <c r="AE433" s="151"/>
       <c r="AF433" s="151"/>
     </row>
-    <row r="434" spans="1:32" ht="16" hidden="1">
+    <row r="434" spans="1:32" ht="16">
       <c r="A434" s="140">
         <v>427</v>
       </c>
@@ -39865,7 +39864,7 @@
       <c r="AE434" s="151"/>
       <c r="AF434" s="151"/>
     </row>
-    <row r="435" spans="1:32" s="199" customFormat="1" ht="16" hidden="1">
+    <row r="435" spans="1:32" s="199" customFormat="1" ht="16">
       <c r="A435" s="197">
         <v>428</v>
       </c>
@@ -39940,7 +39939,7 @@
       <c r="AE435" s="207"/>
       <c r="AF435" s="207"/>
     </row>
-    <row r="436" spans="1:32" s="199" customFormat="1" ht="16" hidden="1">
+    <row r="436" spans="1:32" s="199" customFormat="1" ht="16">
       <c r="A436" s="197">
         <v>429</v>
       </c>
@@ -40011,7 +40010,7 @@
       <c r="AE436" s="207"/>
       <c r="AF436" s="207"/>
     </row>
-    <row r="437" spans="1:32" ht="16" hidden="1">
+    <row r="437" spans="1:32" ht="16">
       <c r="A437" s="140">
         <v>430</v>
       </c>
@@ -40080,7 +40079,7 @@
       <c r="AE437" s="151"/>
       <c r="AF437" s="151"/>
     </row>
-    <row r="438" spans="1:32" ht="16" hidden="1">
+    <row r="438" spans="1:32" ht="16">
       <c r="A438" s="140">
         <v>431</v>
       </c>
@@ -40149,7 +40148,7 @@
       <c r="AE438" s="151"/>
       <c r="AF438" s="151"/>
     </row>
-    <row r="439" spans="1:32" ht="16" hidden="1">
+    <row r="439" spans="1:32" ht="16">
       <c r="A439" s="140">
         <v>432</v>
       </c>
@@ -40218,7 +40217,7 @@
       <c r="AE439" s="151"/>
       <c r="AF439" s="151"/>
     </row>
-    <row r="440" spans="1:32" ht="16" hidden="1">
+    <row r="440" spans="1:32" ht="16">
       <c r="A440" s="140">
         <v>433</v>
       </c>
@@ -40297,7 +40296,7 @@
       <c r="AE440" s="151"/>
       <c r="AF440" s="151"/>
     </row>
-    <row r="441" spans="1:32" ht="16" hidden="1">
+    <row r="441" spans="1:32" ht="16">
       <c r="A441" s="140">
         <v>434</v>
       </c>
@@ -40376,7 +40375,7 @@
       <c r="AE441" s="151"/>
       <c r="AF441" s="151"/>
     </row>
-    <row r="442" spans="1:32" ht="16" hidden="1">
+    <row r="442" spans="1:32" ht="16">
       <c r="A442" s="140">
         <v>435</v>
       </c>
@@ -40447,7 +40446,7 @@
       <c r="AE442" s="151"/>
       <c r="AF442" s="151"/>
     </row>
-    <row r="443" spans="1:32" ht="16" hidden="1">
+    <row r="443" spans="1:32" ht="16">
       <c r="A443" s="140">
         <v>436</v>
       </c>
@@ -40516,7 +40515,7 @@
       <c r="AE443" s="151"/>
       <c r="AF443" s="151"/>
     </row>
-    <row r="444" spans="1:32" s="199" customFormat="1" ht="16" hidden="1">
+    <row r="444" spans="1:32" s="199" customFormat="1" ht="16">
       <c r="A444" s="197">
         <v>437</v>
       </c>
@@ -40593,7 +40592,7 @@
       <c r="AE444" s="207"/>
       <c r="AF444" s="207"/>
     </row>
-    <row r="445" spans="1:32" ht="16" hidden="1">
+    <row r="445" spans="1:32" ht="16">
       <c r="A445" s="140">
         <v>438</v>
       </c>
@@ -40664,7 +40663,7 @@
       <c r="AE445" s="151"/>
       <c r="AF445" s="151"/>
     </row>
-    <row r="446" spans="1:32" ht="16" hidden="1">
+    <row r="446" spans="1:32" ht="16">
       <c r="A446" s="140">
         <v>439</v>
       </c>
@@ -40733,7 +40732,7 @@
       <c r="AE446" s="151"/>
       <c r="AF446" s="151"/>
     </row>
-    <row r="447" spans="1:32" ht="16" hidden="1">
+    <row r="447" spans="1:32" ht="16">
       <c r="A447" s="140">
         <v>440</v>
       </c>
@@ -40802,7 +40801,7 @@
       <c r="AE447" s="151"/>
       <c r="AF447" s="151"/>
     </row>
-    <row r="448" spans="1:32" ht="16" hidden="1">
+    <row r="448" spans="1:32" ht="16">
       <c r="A448" s="140">
         <v>441</v>
       </c>
@@ -40871,7 +40870,7 @@
       <c r="AE448" s="151"/>
       <c r="AF448" s="151"/>
     </row>
-    <row r="449" spans="1:32" ht="16" hidden="1">
+    <row r="449" spans="1:32" ht="16">
       <c r="A449" s="140">
         <v>442</v>
       </c>
@@ -40940,7 +40939,7 @@
       <c r="AE449" s="151"/>
       <c r="AF449" s="151"/>
     </row>
-    <row r="450" spans="1:32" ht="16" hidden="1">
+    <row r="450" spans="1:32" ht="16">
       <c r="A450" s="140">
         <v>443</v>
       </c>
@@ -41009,7 +41008,7 @@
       <c r="AE450" s="151"/>
       <c r="AF450" s="151"/>
     </row>
-    <row r="451" spans="1:32" ht="16" hidden="1">
+    <row r="451" spans="1:32" ht="16">
       <c r="A451" s="140">
         <v>444</v>
       </c>
@@ -41078,7 +41077,7 @@
       <c r="AE451" s="151"/>
       <c r="AF451" s="151"/>
     </row>
-    <row r="452" spans="1:32" ht="16" hidden="1">
+    <row r="452" spans="1:32" ht="16">
       <c r="A452" s="140">
         <v>445</v>
       </c>
@@ -41147,7 +41146,7 @@
       <c r="AE452" s="151"/>
       <c r="AF452" s="151"/>
     </row>
-    <row r="453" spans="1:32" ht="16" hidden="1">
+    <row r="453" spans="1:32" ht="16">
       <c r="A453" s="140">
         <v>446</v>
       </c>
@@ -41214,7 +41213,7 @@
       <c r="AE453" s="151"/>
       <c r="AF453" s="151"/>
     </row>
-    <row r="454" spans="1:32" ht="16" hidden="1">
+    <row r="454" spans="1:32" ht="16">
       <c r="A454" s="140">
         <v>447</v>
       </c>
@@ -41291,7 +41290,7 @@
       <c r="AE454" s="151"/>
       <c r="AF454" s="151"/>
     </row>
-    <row r="455" spans="1:32" ht="16" hidden="1">
+    <row r="455" spans="1:32" ht="16">
       <c r="A455" s="140">
         <v>448</v>
       </c>
@@ -41370,7 +41369,7 @@
       <c r="AE455" s="151"/>
       <c r="AF455" s="151"/>
     </row>
-    <row r="456" spans="1:32" ht="16" hidden="1">
+    <row r="456" spans="1:32" ht="16">
       <c r="A456" s="140">
         <v>449</v>
       </c>
@@ -41445,17 +41444,17 @@
       <c r="AA456" s="151"/>
       <c r="AB456" s="213"/>
       <c r="AC456" s="151"/>
-      <c r="AD456" s="257">
+      <c r="AD456" s="239">
         <v>104</v>
       </c>
-      <c r="AE456" s="257">
+      <c r="AE456" s="239">
         <v>104</v>
       </c>
-      <c r="AF456" s="257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:32" ht="16" hidden="1">
+      <c r="AF456" s="239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:32" ht="16">
       <c r="A457" s="140">
         <v>450</v>
       </c>
@@ -41530,11 +41529,11 @@
       <c r="AA457" s="151"/>
       <c r="AB457" s="213"/>
       <c r="AC457" s="151"/>
-      <c r="AD457" s="257"/>
-      <c r="AE457" s="257"/>
-      <c r="AF457" s="257"/>
-    </row>
-    <row r="458" spans="1:32" ht="16" hidden="1">
+      <c r="AD457" s="239"/>
+      <c r="AE457" s="239"/>
+      <c r="AF457" s="239"/>
+    </row>
+    <row r="458" spans="1:32" ht="16">
       <c r="A458" s="140">
         <v>451</v>
       </c>
@@ -41603,7 +41602,7 @@
       <c r="AE458" s="151"/>
       <c r="AF458" s="151"/>
     </row>
-    <row r="459" spans="1:32" ht="16" hidden="1">
+    <row r="459" spans="1:32" ht="16">
       <c r="A459" s="140">
         <v>452</v>
       </c>
@@ -41672,7 +41671,7 @@
       <c r="AE459" s="151"/>
       <c r="AF459" s="151"/>
     </row>
-    <row r="460" spans="1:32" ht="16" hidden="1">
+    <row r="460" spans="1:32" ht="16">
       <c r="A460" s="140">
         <v>453</v>
       </c>
@@ -41741,7 +41740,7 @@
       <c r="AE460" s="151"/>
       <c r="AF460" s="151"/>
     </row>
-    <row r="461" spans="1:32" ht="16" hidden="1">
+    <row r="461" spans="1:32" ht="16">
       <c r="A461" s="140">
         <v>454</v>
       </c>
@@ -41810,7 +41809,7 @@
       <c r="AE461" s="151"/>
       <c r="AF461" s="151"/>
     </row>
-    <row r="462" spans="1:32" ht="16" hidden="1">
+    <row r="462" spans="1:32" ht="16">
       <c r="A462" s="140">
         <v>455</v>
       </c>
@@ -41879,7 +41878,7 @@
       <c r="AE462" s="151"/>
       <c r="AF462" s="151"/>
     </row>
-    <row r="463" spans="1:32" ht="16" hidden="1">
+    <row r="463" spans="1:32" ht="16">
       <c r="A463" s="140">
         <v>456</v>
       </c>
@@ -41950,7 +41949,7 @@
       <c r="AE463" s="151"/>
       <c r="AF463" s="151"/>
     </row>
-    <row r="464" spans="1:32" ht="16" hidden="1">
+    <row r="464" spans="1:32" ht="16">
       <c r="A464" s="140">
         <v>457</v>
       </c>
@@ -42019,7 +42018,7 @@
       <c r="AE464" s="151"/>
       <c r="AF464" s="151"/>
     </row>
-    <row r="465" spans="1:32" ht="16" hidden="1">
+    <row r="465" spans="1:32" ht="16">
       <c r="A465" s="140">
         <v>458</v>
       </c>
@@ -42088,7 +42087,7 @@
       <c r="AE465" s="151"/>
       <c r="AF465" s="151"/>
     </row>
-    <row r="466" spans="1:32" ht="16" hidden="1">
+    <row r="466" spans="1:32" ht="16">
       <c r="A466" s="140">
         <v>459</v>
       </c>
@@ -42157,7 +42156,7 @@
       <c r="AE466" s="151"/>
       <c r="AF466" s="151"/>
     </row>
-    <row r="467" spans="1:32" ht="16" hidden="1">
+    <row r="467" spans="1:32" ht="16">
       <c r="A467" s="140">
         <v>460</v>
       </c>
@@ -42236,7 +42235,7 @@
       <c r="AE467" s="151"/>
       <c r="AF467" s="151"/>
     </row>
-    <row r="468" spans="1:32" ht="16" hidden="1">
+    <row r="468" spans="1:32" ht="16">
       <c r="A468" s="140">
         <v>461</v>
       </c>
@@ -42315,7 +42314,7 @@
       <c r="AE468" s="151"/>
       <c r="AF468" s="151"/>
     </row>
-    <row r="469" spans="1:32" ht="16" hidden="1">
+    <row r="469" spans="1:32" ht="16">
       <c r="A469" s="140">
         <v>462</v>
       </c>
@@ -42390,7 +42389,7 @@
       <c r="AE469" s="151"/>
       <c r="AF469" s="151"/>
     </row>
-    <row r="470" spans="1:32" ht="16" hidden="1">
+    <row r="470" spans="1:32" ht="16">
       <c r="A470" s="140">
         <v>463</v>
       </c>
@@ -42465,7 +42464,7 @@
       <c r="AE470" s="151"/>
       <c r="AF470" s="151"/>
     </row>
-    <row r="471" spans="1:32" ht="16" hidden="1">
+    <row r="471" spans="1:32" ht="16">
       <c r="A471" s="140">
         <v>464</v>
       </c>
@@ -42540,7 +42539,7 @@
       <c r="AE471" s="151"/>
       <c r="AF471" s="151"/>
     </row>
-    <row r="472" spans="1:32" ht="16" hidden="1">
+    <row r="472" spans="1:32" ht="16">
       <c r="A472" s="140">
         <v>465</v>
       </c>
@@ -42609,7 +42608,7 @@
       <c r="AE472" s="151"/>
       <c r="AF472" s="151"/>
     </row>
-    <row r="473" spans="1:32" ht="16" hidden="1">
+    <row r="473" spans="1:32" ht="16">
       <c r="A473" s="140">
         <v>466</v>
       </c>
@@ -42678,7 +42677,7 @@
       <c r="AE473" s="151"/>
       <c r="AF473" s="151"/>
     </row>
-    <row r="474" spans="1:32" ht="16" hidden="1">
+    <row r="474" spans="1:32" ht="16">
       <c r="A474" s="140">
         <v>467</v>
       </c>
@@ -42747,7 +42746,7 @@
       <c r="AE474" s="151"/>
       <c r="AF474" s="151"/>
     </row>
-    <row r="475" spans="1:32" ht="16" hidden="1">
+    <row r="475" spans="1:32" ht="16">
       <c r="A475" s="140">
         <v>468</v>
       </c>
@@ -42816,7 +42815,7 @@
       <c r="AE475" s="151"/>
       <c r="AF475" s="151"/>
     </row>
-    <row r="476" spans="1:32" ht="16" hidden="1">
+    <row r="476" spans="1:32" ht="16">
       <c r="A476" s="140">
         <v>469</v>
       </c>
@@ -42885,7 +42884,7 @@
       <c r="AE476" s="151"/>
       <c r="AF476" s="151"/>
     </row>
-    <row r="477" spans="1:32" ht="16" hidden="1">
+    <row r="477" spans="1:32" ht="16">
       <c r="A477" s="140">
         <v>470</v>
       </c>
@@ -42954,7 +42953,7 @@
       <c r="AE477" s="151"/>
       <c r="AF477" s="151"/>
     </row>
-    <row r="478" spans="1:32" ht="16" hidden="1">
+    <row r="478" spans="1:32" ht="16">
       <c r="A478" s="140">
         <v>471</v>
       </c>
@@ -43023,7 +43022,7 @@
       <c r="AE478" s="151"/>
       <c r="AF478" s="151"/>
     </row>
-    <row r="479" spans="1:32" ht="16" hidden="1">
+    <row r="479" spans="1:32" ht="16">
       <c r="A479" s="140">
         <v>472</v>
       </c>
@@ -43092,7 +43091,7 @@
       <c r="AE479" s="151"/>
       <c r="AF479" s="151"/>
     </row>
-    <row r="480" spans="1:32" ht="16" hidden="1">
+    <row r="480" spans="1:32" ht="16">
       <c r="A480" s="140">
         <v>473</v>
       </c>
@@ -43161,7 +43160,7 @@
       <c r="AE480" s="151"/>
       <c r="AF480" s="151"/>
     </row>
-    <row r="481" spans="1:32" ht="16" hidden="1">
+    <row r="481" spans="1:32" ht="16">
       <c r="A481" s="140">
         <v>474</v>
       </c>
@@ -43230,7 +43229,7 @@
       <c r="AE481" s="151"/>
       <c r="AF481" s="151"/>
     </row>
-    <row r="482" spans="1:32" s="199" customFormat="1" ht="16" hidden="1">
+    <row r="482" spans="1:32" s="199" customFormat="1" ht="16">
       <c r="A482" s="197">
         <v>475</v>
       </c>
@@ -43301,7 +43300,7 @@
       <c r="AE482" s="207"/>
       <c r="AF482" s="207"/>
     </row>
-    <row r="483" spans="1:32" ht="16" hidden="1">
+    <row r="483" spans="1:32" ht="16">
       <c r="A483" s="140">
         <v>476</v>
       </c>
@@ -43370,7 +43369,7 @@
       <c r="AE483" s="151"/>
       <c r="AF483" s="151"/>
     </row>
-    <row r="484" spans="1:32" ht="16" hidden="1">
+    <row r="484" spans="1:32" ht="16">
       <c r="A484" s="140">
         <v>477</v>
       </c>
@@ -43439,7 +43438,7 @@
       <c r="AE484" s="151"/>
       <c r="AF484" s="151"/>
     </row>
-    <row r="485" spans="1:32" ht="16" hidden="1">
+    <row r="485" spans="1:32" ht="16">
       <c r="A485" s="140">
         <v>478</v>
       </c>
@@ -43508,7 +43507,7 @@
       <c r="AE485" s="151"/>
       <c r="AF485" s="151"/>
     </row>
-    <row r="486" spans="1:32" ht="16" hidden="1">
+    <row r="486" spans="1:32" ht="16">
       <c r="A486" s="140">
         <v>479</v>
       </c>
@@ -43577,7 +43576,7 @@
       <c r="AE486" s="151"/>
       <c r="AF486" s="151"/>
     </row>
-    <row r="487" spans="1:32" ht="16" hidden="1">
+    <row r="487" spans="1:32" ht="16">
       <c r="A487" s="140">
         <v>480</v>
       </c>
@@ -43646,7 +43645,7 @@
       <c r="AE487" s="151"/>
       <c r="AF487" s="151"/>
     </row>
-    <row r="488" spans="1:32" ht="16" hidden="1">
+    <row r="488" spans="1:32" ht="16">
       <c r="A488" s="140">
         <v>481</v>
       </c>
@@ -43715,7 +43714,7 @@
       <c r="AE488" s="151"/>
       <c r="AF488" s="151"/>
     </row>
-    <row r="489" spans="1:32" ht="16" hidden="1">
+    <row r="489" spans="1:32" ht="16">
       <c r="A489" s="140">
         <v>482</v>
       </c>
@@ -43784,7 +43783,7 @@
       <c r="AE489" s="151"/>
       <c r="AF489" s="151"/>
     </row>
-    <row r="490" spans="1:32" ht="16" hidden="1">
+    <row r="490" spans="1:32" ht="16">
       <c r="A490" s="140">
         <v>483</v>
       </c>
@@ -43853,7 +43852,7 @@
       <c r="AE490" s="151"/>
       <c r="AF490" s="151"/>
     </row>
-    <row r="491" spans="1:32" ht="16" hidden="1">
+    <row r="491" spans="1:32" ht="16">
       <c r="A491" s="140">
         <v>484</v>
       </c>
@@ -43922,7 +43921,7 @@
       <c r="AE491" s="151"/>
       <c r="AF491" s="151"/>
     </row>
-    <row r="492" spans="1:32" ht="16" hidden="1">
+    <row r="492" spans="1:32" ht="16">
       <c r="A492" s="140">
         <v>485</v>
       </c>
@@ -43991,7 +43990,7 @@
       <c r="AE492" s="151"/>
       <c r="AF492" s="151"/>
     </row>
-    <row r="493" spans="1:32" ht="16" hidden="1">
+    <row r="493" spans="1:32" ht="16">
       <c r="A493" s="140">
         <v>486</v>
       </c>
@@ -44060,7 +44059,7 @@
       <c r="AE493" s="151"/>
       <c r="AF493" s="151"/>
     </row>
-    <row r="494" spans="1:32" ht="16" hidden="1">
+    <row r="494" spans="1:32" ht="16">
       <c r="A494" s="140">
         <v>487</v>
       </c>
@@ -44129,7 +44128,7 @@
       <c r="AE494" s="151"/>
       <c r="AF494" s="151"/>
     </row>
-    <row r="495" spans="1:32" ht="16" hidden="1">
+    <row r="495" spans="1:32" ht="16">
       <c r="A495" s="140">
         <v>488</v>
       </c>
@@ -44198,7 +44197,7 @@
       <c r="AE495" s="151"/>
       <c r="AF495" s="151"/>
     </row>
-    <row r="496" spans="1:32" ht="16" hidden="1">
+    <row r="496" spans="1:32" ht="16">
       <c r="A496" s="140">
         <v>489</v>
       </c>
@@ -44267,7 +44266,7 @@
       <c r="AE496" s="151"/>
       <c r="AF496" s="151"/>
     </row>
-    <row r="497" spans="1:32" ht="16" hidden="1">
+    <row r="497" spans="1:32" ht="16">
       <c r="A497" s="140">
         <v>490</v>
       </c>
@@ -44336,7 +44335,7 @@
       <c r="AE497" s="151"/>
       <c r="AF497" s="151"/>
     </row>
-    <row r="498" spans="1:32" ht="16" hidden="1">
+    <row r="498" spans="1:32" ht="16">
       <c r="A498" s="140">
         <v>491</v>
       </c>
@@ -44405,7 +44404,7 @@
       <c r="AE498" s="151"/>
       <c r="AF498" s="151"/>
     </row>
-    <row r="499" spans="1:32" ht="16" hidden="1">
+    <row r="499" spans="1:32" ht="16">
       <c r="A499" s="140">
         <v>492</v>
       </c>
@@ -44474,7 +44473,7 @@
       <c r="AE499" s="151"/>
       <c r="AF499" s="151"/>
     </row>
-    <row r="500" spans="1:32" ht="16" hidden="1">
+    <row r="500" spans="1:32" ht="16">
       <c r="A500" s="140">
         <v>493</v>
       </c>
@@ -44543,7 +44542,7 @@
       <c r="AE500" s="151"/>
       <c r="AF500" s="151"/>
     </row>
-    <row r="501" spans="1:32" ht="16" hidden="1">
+    <row r="501" spans="1:32" ht="16">
       <c r="A501" s="140">
         <v>494</v>
       </c>
@@ -44612,7 +44611,7 @@
       <c r="AE501" s="151"/>
       <c r="AF501" s="151"/>
     </row>
-    <row r="502" spans="1:32" ht="16" hidden="1">
+    <row r="502" spans="1:32" ht="16">
       <c r="A502" s="140">
         <v>495</v>
       </c>
@@ -44681,7 +44680,7 @@
       <c r="AE502" s="151"/>
       <c r="AF502" s="151"/>
     </row>
-    <row r="503" spans="1:32" ht="16" hidden="1">
+    <row r="503" spans="1:32" ht="16">
       <c r="A503" s="140">
         <v>496</v>
       </c>
@@ -44750,7 +44749,7 @@
       <c r="AE503" s="151"/>
       <c r="AF503" s="151"/>
     </row>
-    <row r="504" spans="1:32" ht="16" hidden="1">
+    <row r="504" spans="1:32" ht="16">
       <c r="A504" s="140">
         <v>497</v>
       </c>
@@ -44819,7 +44818,7 @@
       <c r="AE504" s="151"/>
       <c r="AF504" s="151"/>
     </row>
-    <row r="505" spans="1:32" ht="16" hidden="1">
+    <row r="505" spans="1:32" ht="16">
       <c r="A505" s="140">
         <v>498</v>
       </c>
@@ -44888,7 +44887,7 @@
       <c r="AE505" s="151"/>
       <c r="AF505" s="151"/>
     </row>
-    <row r="506" spans="1:32" ht="16" hidden="1">
+    <row r="506" spans="1:32" ht="16">
       <c r="A506" s="140">
         <v>499</v>
       </c>
@@ -44957,7 +44956,7 @@
       <c r="AE506" s="151"/>
       <c r="AF506" s="151"/>
     </row>
-    <row r="507" spans="1:32" ht="16" hidden="1">
+    <row r="507" spans="1:32" ht="16">
       <c r="A507" s="140">
         <v>500</v>
       </c>
@@ -45026,7 +45025,7 @@
       <c r="AE507" s="151"/>
       <c r="AF507" s="151"/>
     </row>
-    <row r="508" spans="1:32" ht="16" hidden="1">
+    <row r="508" spans="1:32" ht="16">
       <c r="A508" s="140">
         <v>501</v>
       </c>
@@ -45095,7 +45094,7 @@
       <c r="AE508" s="151"/>
       <c r="AF508" s="151"/>
     </row>
-    <row r="509" spans="1:32" ht="16" hidden="1">
+    <row r="509" spans="1:32" ht="16">
       <c r="A509" s="140">
         <v>502</v>
       </c>
@@ -45164,7 +45163,7 @@
       <c r="AE509" s="151"/>
       <c r="AF509" s="151"/>
     </row>
-    <row r="510" spans="1:32" ht="16" hidden="1">
+    <row r="510" spans="1:32" ht="16">
       <c r="A510" s="140">
         <v>503</v>
       </c>
@@ -45233,7 +45232,7 @@
       <c r="AE510" s="151"/>
       <c r="AF510" s="151"/>
     </row>
-    <row r="511" spans="1:32" ht="16" hidden="1">
+    <row r="511" spans="1:32" ht="16">
       <c r="A511" s="140">
         <v>504</v>
       </c>
@@ -45302,7 +45301,7 @@
       <c r="AE511" s="151"/>
       <c r="AF511" s="151"/>
     </row>
-    <row r="512" spans="1:32" ht="16" hidden="1">
+    <row r="512" spans="1:32" ht="16">
       <c r="A512" s="140">
         <v>505</v>
       </c>
@@ -45371,7 +45370,7 @@
       <c r="AE512" s="151"/>
       <c r="AF512" s="151"/>
     </row>
-    <row r="513" spans="1:32" ht="16" hidden="1">
+    <row r="513" spans="1:32" ht="16">
       <c r="A513" s="140">
         <v>506</v>
       </c>
@@ -45440,7 +45439,7 @@
       <c r="AE513" s="151"/>
       <c r="AF513" s="151"/>
     </row>
-    <row r="514" spans="1:32" ht="16" hidden="1">
+    <row r="514" spans="1:32" ht="16">
       <c r="A514" s="140">
         <v>507</v>
       </c>
@@ -45509,7 +45508,7 @@
       <c r="AE514" s="151"/>
       <c r="AF514" s="151"/>
     </row>
-    <row r="515" spans="1:32" ht="16" hidden="1">
+    <row r="515" spans="1:32" ht="16">
       <c r="A515" s="140">
         <v>508</v>
       </c>
@@ -45580,7 +45579,7 @@
       <c r="AE515" s="151"/>
       <c r="AF515" s="151"/>
     </row>
-    <row r="516" spans="1:32" ht="16" hidden="1">
+    <row r="516" spans="1:32" ht="16">
       <c r="A516" s="140">
         <v>509</v>
       </c>
@@ -45651,7 +45650,7 @@
       <c r="AE516" s="151"/>
       <c r="AF516" s="151"/>
     </row>
-    <row r="517" spans="1:32" ht="16" hidden="1">
+    <row r="517" spans="1:32" ht="16">
       <c r="A517" s="140">
         <v>510</v>
       </c>
@@ -45720,7 +45719,7 @@
       <c r="AE517" s="151"/>
       <c r="AF517" s="151"/>
     </row>
-    <row r="518" spans="1:32" ht="16" hidden="1" customHeight="1">
+    <row r="518" spans="1:32" ht="16" customHeight="1">
       <c r="A518" s="140">
         <v>511</v>
       </c>
@@ -45787,7 +45786,7 @@
       <c r="AE518" s="151"/>
       <c r="AF518" s="151"/>
     </row>
-    <row r="519" spans="1:32" ht="16" hidden="1">
+    <row r="519" spans="1:32" ht="16">
       <c r="A519" s="140">
         <v>512</v>
       </c>
@@ -45854,7 +45853,7 @@
       <c r="AE519" s="151"/>
       <c r="AF519" s="151"/>
     </row>
-    <row r="520" spans="1:32" ht="16" hidden="1">
+    <row r="520" spans="1:32" ht="16">
       <c r="A520" s="140">
         <v>513</v>
       </c>
@@ -45921,7 +45920,7 @@
       <c r="AE520" s="151"/>
       <c r="AF520" s="151"/>
     </row>
-    <row r="521" spans="1:32" ht="16" hidden="1">
+    <row r="521" spans="1:32" ht="16">
       <c r="A521" s="140">
         <v>514</v>
       </c>
@@ -45988,7 +45987,7 @@
       <c r="AE521" s="151"/>
       <c r="AF521" s="151"/>
     </row>
-    <row r="522" spans="1:32" ht="16" hidden="1">
+    <row r="522" spans="1:32" ht="16">
       <c r="A522" s="140">
         <v>515</v>
       </c>
@@ -46055,7 +46054,7 @@
       <c r="AE522" s="151"/>
       <c r="AF522" s="151"/>
     </row>
-    <row r="523" spans="1:32" ht="16" hidden="1">
+    <row r="523" spans="1:32" ht="16">
       <c r="A523" s="140">
         <v>516</v>
       </c>
@@ -46122,7 +46121,7 @@
       <c r="AE523" s="151"/>
       <c r="AF523" s="151"/>
     </row>
-    <row r="524" spans="1:32" ht="16" hidden="1">
+    <row r="524" spans="1:32" ht="16">
       <c r="A524" s="140">
         <v>517</v>
       </c>
@@ -46260,7 +46259,7 @@
       <c r="AE525" s="151"/>
       <c r="AF525" s="151"/>
     </row>
-    <row r="526" spans="1:32" ht="16" hidden="1">
+    <row r="526" spans="1:32" ht="16">
       <c r="A526" s="140">
         <v>519</v>
       </c>
@@ -46329,7 +46328,7 @@
       <c r="AE526" s="151"/>
       <c r="AF526" s="151"/>
     </row>
-    <row r="527" spans="1:32" ht="16" hidden="1">
+    <row r="527" spans="1:32" ht="16">
       <c r="A527" s="140">
         <v>520</v>
       </c>
@@ -46398,7 +46397,7 @@
       <c r="AE527" s="151"/>
       <c r="AF527" s="151"/>
     </row>
-    <row r="528" spans="1:32" ht="16" hidden="1">
+    <row r="528" spans="1:32" ht="16">
       <c r="A528" s="140">
         <v>521</v>
       </c>
@@ -46467,7 +46466,7 @@
       <c r="AE528" s="151"/>
       <c r="AF528" s="151"/>
     </row>
-    <row r="529" spans="1:32" ht="16" hidden="1">
+    <row r="529" spans="1:32" ht="16">
       <c r="A529" s="140">
         <v>522</v>
       </c>
@@ -46536,7 +46535,7 @@
       <c r="AE529" s="151"/>
       <c r="AF529" s="151"/>
     </row>
-    <row r="530" spans="1:32" ht="16" hidden="1">
+    <row r="530" spans="1:32" ht="16">
       <c r="A530" s="140">
         <v>523</v>
       </c>
@@ -46605,7 +46604,7 @@
       <c r="AE530" s="151"/>
       <c r="AF530" s="151"/>
     </row>
-    <row r="531" spans="1:32" s="199" customFormat="1" ht="16" hidden="1">
+    <row r="531" spans="1:32" s="199" customFormat="1" ht="16">
       <c r="A531" s="197">
         <v>524</v>
       </c>
@@ -46676,7 +46675,7 @@
       <c r="AE531" s="207"/>
       <c r="AF531" s="207"/>
     </row>
-    <row r="532" spans="1:32" ht="16" hidden="1">
+    <row r="532" spans="1:32" ht="16">
       <c r="A532" s="140">
         <v>525</v>
       </c>
@@ -46745,7 +46744,7 @@
       <c r="AE532" s="151"/>
       <c r="AF532" s="151"/>
     </row>
-    <row r="533" spans="1:32" ht="16" hidden="1">
+    <row r="533" spans="1:32" ht="16">
       <c r="A533" s="140">
         <v>526</v>
       </c>
@@ -46814,7 +46813,7 @@
       <c r="AE533" s="151"/>
       <c r="AF533" s="151"/>
     </row>
-    <row r="534" spans="1:32" ht="16" hidden="1">
+    <row r="534" spans="1:32" ht="16">
       <c r="A534" s="140">
         <v>527</v>
       </c>
@@ -46883,7 +46882,7 @@
       <c r="AE534" s="151"/>
       <c r="AF534" s="151"/>
     </row>
-    <row r="535" spans="1:32" ht="16" hidden="1">
+    <row r="535" spans="1:32" ht="16">
       <c r="A535" s="140">
         <v>528</v>
       </c>
@@ -46952,7 +46951,7 @@
       <c r="AE535" s="151"/>
       <c r="AF535" s="151"/>
     </row>
-    <row r="536" spans="1:32" ht="16" hidden="1">
+    <row r="536" spans="1:32" ht="16">
       <c r="A536" s="140">
         <v>529</v>
       </c>
@@ -47021,7 +47020,7 @@
       <c r="AE536" s="151"/>
       <c r="AF536" s="151"/>
     </row>
-    <row r="537" spans="1:32" ht="16" hidden="1">
+    <row r="537" spans="1:32" ht="16">
       <c r="A537" s="140">
         <v>530</v>
       </c>
@@ -47090,7 +47089,7 @@
       <c r="AE537" s="151"/>
       <c r="AF537" s="151"/>
     </row>
-    <row r="538" spans="1:32" ht="16" hidden="1">
+    <row r="538" spans="1:32" ht="16">
       <c r="A538" s="140">
         <v>531</v>
       </c>
@@ -47159,7 +47158,7 @@
       <c r="AE538" s="151"/>
       <c r="AF538" s="151"/>
     </row>
-    <row r="539" spans="1:32" ht="16" hidden="1">
+    <row r="539" spans="1:32" ht="16">
       <c r="A539" s="140">
         <v>532</v>
       </c>
@@ -47228,7 +47227,7 @@
       <c r="AE539" s="151"/>
       <c r="AF539" s="151"/>
     </row>
-    <row r="540" spans="1:32" ht="16" hidden="1">
+    <row r="540" spans="1:32" ht="16">
       <c r="A540" s="140">
         <v>533</v>
       </c>
@@ -47297,7 +47296,7 @@
       <c r="AE540" s="151"/>
       <c r="AF540" s="151"/>
     </row>
-    <row r="541" spans="1:32" ht="16" hidden="1">
+    <row r="541" spans="1:32" ht="16">
       <c r="A541" s="140">
         <v>534</v>
       </c>
@@ -47366,7 +47365,7 @@
       <c r="AE541" s="151"/>
       <c r="AF541" s="151"/>
     </row>
-    <row r="542" spans="1:32" ht="16" hidden="1">
+    <row r="542" spans="1:32" ht="16">
       <c r="A542" s="140">
         <v>535</v>
       </c>
@@ -47435,7 +47434,7 @@
       <c r="AE542" s="151"/>
       <c r="AF542" s="151"/>
     </row>
-    <row r="543" spans="1:32" ht="16" hidden="1">
+    <row r="543" spans="1:32" ht="16">
       <c r="A543" s="140">
         <v>536</v>
       </c>
@@ -47504,7 +47503,7 @@
       <c r="AE543" s="151"/>
       <c r="AF543" s="151"/>
     </row>
-    <row r="544" spans="1:32" ht="16" hidden="1">
+    <row r="544" spans="1:32" ht="16">
       <c r="A544" s="140">
         <v>537</v>
       </c>
@@ -47573,7 +47572,7 @@
       <c r="AE544" s="151"/>
       <c r="AF544" s="151"/>
     </row>
-    <row r="545" spans="1:32" ht="16" hidden="1">
+    <row r="545" spans="1:32" ht="16">
       <c r="A545" s="140">
         <v>538</v>
       </c>
@@ -47642,7 +47641,7 @@
       <c r="AE545" s="151"/>
       <c r="AF545" s="151"/>
     </row>
-    <row r="546" spans="1:32" ht="16" hidden="1">
+    <row r="546" spans="1:32" ht="16">
       <c r="A546" s="140">
         <v>539</v>
       </c>
@@ -47711,7 +47710,7 @@
       <c r="AE546" s="151"/>
       <c r="AF546" s="151"/>
     </row>
-    <row r="547" spans="1:32" ht="16" hidden="1">
+    <row r="547" spans="1:32" ht="16">
       <c r="A547" s="140">
         <v>540</v>
       </c>
@@ -47780,7 +47779,7 @@
       <c r="AE547" s="151"/>
       <c r="AF547" s="151"/>
     </row>
-    <row r="548" spans="1:32" ht="16" hidden="1">
+    <row r="548" spans="1:32" ht="16">
       <c r="A548" s="140">
         <v>541</v>
       </c>
@@ -47849,7 +47848,7 @@
       <c r="AE548" s="151"/>
       <c r="AF548" s="151"/>
     </row>
-    <row r="549" spans="1:32" ht="16" hidden="1">
+    <row r="549" spans="1:32" ht="16">
       <c r="A549" s="140">
         <v>542</v>
       </c>
@@ -47918,7 +47917,7 @@
       <c r="AE549" s="151"/>
       <c r="AF549" s="151"/>
     </row>
-    <row r="550" spans="1:32" ht="16" hidden="1">
+    <row r="550" spans="1:32" ht="16">
       <c r="A550" s="140">
         <v>543</v>
       </c>
@@ -47987,7 +47986,7 @@
       <c r="AE550" s="151"/>
       <c r="AF550" s="151"/>
     </row>
-    <row r="551" spans="1:32" ht="16" hidden="1">
+    <row r="551" spans="1:32" ht="16">
       <c r="A551" s="140">
         <v>544</v>
       </c>
@@ -48056,7 +48055,7 @@
       <c r="AE551" s="151"/>
       <c r="AF551" s="151"/>
     </row>
-    <row r="552" spans="1:32" ht="16" hidden="1">
+    <row r="552" spans="1:32" ht="16">
       <c r="A552" s="140">
         <v>545</v>
       </c>
@@ -48125,7 +48124,7 @@
       <c r="AE552" s="151"/>
       <c r="AF552" s="151"/>
     </row>
-    <row r="553" spans="1:32" ht="16" hidden="1">
+    <row r="553" spans="1:32" ht="16">
       <c r="A553" s="140">
         <v>546</v>
       </c>
@@ -48194,7 +48193,7 @@
       <c r="AE553" s="151"/>
       <c r="AF553" s="151"/>
     </row>
-    <row r="554" spans="1:32" ht="16" hidden="1">
+    <row r="554" spans="1:32" ht="16">
       <c r="A554" s="140">
         <v>547</v>
       </c>
@@ -48260,7 +48259,7 @@
       <c r="AE554" s="151"/>
       <c r="AF554" s="151"/>
     </row>
-    <row r="555" spans="1:32" ht="16" hidden="1">
+    <row r="555" spans="1:32" ht="16">
       <c r="A555" s="140">
         <v>548</v>
       </c>
@@ -48326,7 +48325,7 @@
       <c r="AE555" s="151"/>
       <c r="AF555" s="151"/>
     </row>
-    <row r="556" spans="1:32" ht="16" hidden="1">
+    <row r="556" spans="1:32" ht="16">
       <c r="A556" s="140">
         <v>549</v>
       </c>
@@ -48392,7 +48391,7 @@
       <c r="AE556" s="151"/>
       <c r="AF556" s="151"/>
     </row>
-    <row r="557" spans="1:32" ht="16" hidden="1">
+    <row r="557" spans="1:32" ht="16">
       <c r="A557" s="140">
         <v>550</v>
       </c>
@@ -48458,7 +48457,7 @@
       <c r="AE557" s="151"/>
       <c r="AF557" s="151"/>
     </row>
-    <row r="558" spans="1:32" ht="16" hidden="1">
+    <row r="558" spans="1:32" ht="16">
       <c r="A558" s="140">
         <v>551</v>
       </c>
@@ -48524,7 +48523,7 @@
       <c r="AE558" s="151"/>
       <c r="AF558" s="151"/>
     </row>
-    <row r="559" spans="1:32" ht="16" hidden="1">
+    <row r="559" spans="1:32" ht="16">
       <c r="A559" s="140">
         <v>552</v>
       </c>
@@ -48590,7 +48589,7 @@
       <c r="AE559" s="151"/>
       <c r="AF559" s="151"/>
     </row>
-    <row r="560" spans="1:32" ht="16" hidden="1">
+    <row r="560" spans="1:32" ht="16">
       <c r="A560" s="140">
         <v>553</v>
       </c>
@@ -48656,7 +48655,7 @@
       <c r="AE560" s="151"/>
       <c r="AF560" s="151"/>
     </row>
-    <row r="561" spans="1:32" ht="16" hidden="1">
+    <row r="561" spans="1:32" ht="16">
       <c r="A561" s="140">
         <v>554</v>
       </c>
@@ -48722,7 +48721,7 @@
       <c r="AE561" s="151"/>
       <c r="AF561" s="151"/>
     </row>
-    <row r="562" spans="1:32" ht="16" hidden="1">
+    <row r="562" spans="1:32" ht="16">
       <c r="A562" s="140">
         <v>555</v>
       </c>
@@ -48788,7 +48787,7 @@
       <c r="AE562" s="151"/>
       <c r="AF562" s="151"/>
     </row>
-    <row r="563" spans="1:32" ht="16" hidden="1">
+    <row r="563" spans="1:32" ht="16">
       <c r="A563" s="140">
         <v>556</v>
       </c>
@@ -48854,7 +48853,7 @@
       <c r="AE563" s="151"/>
       <c r="AF563" s="151"/>
     </row>
-    <row r="564" spans="1:32" ht="16" hidden="1">
+    <row r="564" spans="1:32" ht="16">
       <c r="A564" s="140">
         <v>557</v>
       </c>
@@ -48920,7 +48919,7 @@
       <c r="AE564" s="151"/>
       <c r="AF564" s="151"/>
     </row>
-    <row r="565" spans="1:32" ht="16" hidden="1">
+    <row r="565" spans="1:32" ht="16">
       <c r="A565" s="140">
         <v>558</v>
       </c>
@@ -48986,7 +48985,7 @@
       <c r="AE565" s="151"/>
       <c r="AF565" s="151"/>
     </row>
-    <row r="566" spans="1:32" ht="16" hidden="1">
+    <row r="566" spans="1:32" ht="16">
       <c r="A566" s="140">
         <v>559</v>
       </c>
@@ -49051,7 +49050,7 @@
       <c r="AE566" s="151"/>
       <c r="AF566" s="151"/>
     </row>
-    <row r="567" spans="1:32" ht="16" hidden="1">
+    <row r="567" spans="1:32" ht="16">
       <c r="A567" s="140">
         <v>560</v>
       </c>
@@ -49116,7 +49115,7 @@
       <c r="AE567" s="151"/>
       <c r="AF567" s="151"/>
     </row>
-    <row r="568" spans="1:32" ht="16" hidden="1">
+    <row r="568" spans="1:32" ht="16">
       <c r="A568" s="140">
         <v>561</v>
       </c>
@@ -49182,7 +49181,7 @@
       <c r="AE568" s="151"/>
       <c r="AF568" s="151"/>
     </row>
-    <row r="569" spans="1:32" ht="16" hidden="1">
+    <row r="569" spans="1:32" ht="16">
       <c r="A569" s="140">
         <v>562</v>
       </c>
@@ -49248,7 +49247,7 @@
       <c r="AE569" s="151"/>
       <c r="AF569" s="151"/>
     </row>
-    <row r="570" spans="1:32" ht="16" hidden="1">
+    <row r="570" spans="1:32" ht="16">
       <c r="A570" s="140">
         <v>563</v>
       </c>
@@ -49314,7 +49313,7 @@
       <c r="AE570" s="151"/>
       <c r="AF570" s="151"/>
     </row>
-    <row r="571" spans="1:32" ht="16" hidden="1">
+    <row r="571" spans="1:32" ht="16">
       <c r="A571" s="140">
         <v>564</v>
       </c>
@@ -49380,7 +49379,7 @@
       <c r="AE571" s="151"/>
       <c r="AF571" s="151"/>
     </row>
-    <row r="572" spans="1:32" ht="16" hidden="1">
+    <row r="572" spans="1:32" ht="16">
       <c r="A572" s="140">
         <v>565</v>
       </c>
@@ -49446,7 +49445,7 @@
       <c r="AE572" s="151"/>
       <c r="AF572" s="151"/>
     </row>
-    <row r="573" spans="1:32" ht="16" hidden="1">
+    <row r="573" spans="1:32" ht="16">
       <c r="A573" s="140">
         <v>566</v>
       </c>
@@ -49645,7 +49644,7 @@
       <c r="AE575" s="151"/>
       <c r="AF575" s="151"/>
     </row>
-    <row r="576" spans="1:32" ht="16" hidden="1">
+    <row r="576" spans="1:32" ht="16">
       <c r="A576" s="140">
         <v>569</v>
       </c>
@@ -49711,7 +49710,7 @@
       <c r="AE576" s="151"/>
       <c r="AF576" s="151"/>
     </row>
-    <row r="577" spans="1:32" ht="16" hidden="1">
+    <row r="577" spans="1:32" ht="16">
       <c r="A577" s="140">
         <v>570</v>
       </c>
@@ -49777,7 +49776,7 @@
       <c r="AE577" s="151"/>
       <c r="AF577" s="151"/>
     </row>
-    <row r="578" spans="1:32" ht="16" hidden="1">
+    <row r="578" spans="1:32" ht="16">
       <c r="A578" s="140">
         <v>571</v>
       </c>
@@ -49843,7 +49842,7 @@
       <c r="AE578" s="151"/>
       <c r="AF578" s="151"/>
     </row>
-    <row r="579" spans="1:32" ht="16" hidden="1">
+    <row r="579" spans="1:32" ht="16">
       <c r="A579" s="140">
         <v>572</v>
       </c>
@@ -49909,7 +49908,7 @@
       <c r="AE579" s="151"/>
       <c r="AF579" s="151"/>
     </row>
-    <row r="580" spans="1:32" ht="16" hidden="1">
+    <row r="580" spans="1:32" ht="16">
       <c r="A580" s="140">
         <v>573</v>
       </c>
@@ -49975,7 +49974,7 @@
       <c r="AE580" s="151"/>
       <c r="AF580" s="151"/>
     </row>
-    <row r="581" spans="1:32" ht="16" hidden="1">
+    <row r="581" spans="1:32" ht="16">
       <c r="A581" s="140">
         <v>574</v>
       </c>
@@ -50041,7 +50040,7 @@
       <c r="AE581" s="151"/>
       <c r="AF581" s="151"/>
     </row>
-    <row r="582" spans="1:32" s="199" customFormat="1" ht="16" hidden="1">
+    <row r="582" spans="1:32" s="199" customFormat="1" ht="16">
       <c r="A582" s="197">
         <v>575</v>
       </c>
@@ -50107,7 +50106,7 @@
       <c r="AE582" s="207"/>
       <c r="AF582" s="207"/>
     </row>
-    <row r="583" spans="1:32" ht="16" hidden="1">
+    <row r="583" spans="1:32" ht="16">
       <c r="A583" s="140">
         <v>576</v>
       </c>
@@ -50173,7 +50172,7 @@
       <c r="AE583" s="151"/>
       <c r="AF583" s="151"/>
     </row>
-    <row r="584" spans="1:32" ht="16" hidden="1">
+    <row r="584" spans="1:32" ht="16">
       <c r="A584" s="140">
         <v>577</v>
       </c>
@@ -50239,7 +50238,7 @@
       <c r="AE584" s="151"/>
       <c r="AF584" s="151"/>
     </row>
-    <row r="585" spans="1:32" ht="16" hidden="1">
+    <row r="585" spans="1:32" ht="16">
       <c r="A585" s="140">
         <v>578</v>
       </c>
@@ -50305,7 +50304,7 @@
       <c r="AE585" s="151"/>
       <c r="AF585" s="151"/>
     </row>
-    <row r="586" spans="1:32" ht="16" hidden="1">
+    <row r="586" spans="1:32" ht="16">
       <c r="A586" s="140">
         <v>579</v>
       </c>
@@ -50371,7 +50370,7 @@
       <c r="AE586" s="151"/>
       <c r="AF586" s="151"/>
     </row>
-    <row r="587" spans="1:32" ht="16" hidden="1">
+    <row r="587" spans="1:32" ht="16">
       <c r="A587" s="140">
         <v>580</v>
       </c>
@@ -50437,7 +50436,7 @@
       <c r="AE587" s="151"/>
       <c r="AF587" s="151"/>
     </row>
-    <row r="588" spans="1:32" ht="16" hidden="1">
+    <row r="588" spans="1:32" ht="16">
       <c r="A588" s="140">
         <v>581</v>
       </c>
@@ -50503,7 +50502,7 @@
       <c r="AE588" s="151"/>
       <c r="AF588" s="151"/>
     </row>
-    <row r="589" spans="1:32" ht="16" hidden="1">
+    <row r="589" spans="1:32" ht="16">
       <c r="A589" s="140">
         <v>582</v>
       </c>
@@ -50569,7 +50568,7 @@
       <c r="AE589" s="151"/>
       <c r="AF589" s="151"/>
     </row>
-    <row r="590" spans="1:32" ht="16" hidden="1">
+    <row r="590" spans="1:32" ht="16">
       <c r="A590" s="140">
         <v>583</v>
       </c>
@@ -50635,7 +50634,7 @@
       <c r="AE590" s="151"/>
       <c r="AF590" s="151"/>
     </row>
-    <row r="591" spans="1:32" ht="16" hidden="1">
+    <row r="591" spans="1:32" ht="16">
       <c r="A591" s="140">
         <v>584</v>
       </c>
@@ -50701,7 +50700,7 @@
       <c r="AE591" s="151"/>
       <c r="AF591" s="151"/>
     </row>
-    <row r="592" spans="1:32" ht="16" hidden="1">
+    <row r="592" spans="1:32" ht="16">
       <c r="A592" s="140">
         <v>585</v>
       </c>
@@ -50767,7 +50766,7 @@
       <c r="AE592" s="151"/>
       <c r="AF592" s="151"/>
     </row>
-    <row r="593" spans="1:32" ht="16" hidden="1">
+    <row r="593" spans="1:32" ht="16">
       <c r="A593" s="140">
         <v>586</v>
       </c>
@@ -50833,7 +50832,7 @@
       <c r="AE593" s="151"/>
       <c r="AF593" s="151"/>
     </row>
-    <row r="594" spans="1:32" ht="16" hidden="1">
+    <row r="594" spans="1:32" ht="16">
       <c r="A594" s="140">
         <v>587</v>
       </c>
@@ -50899,7 +50898,7 @@
       <c r="AE594" s="151"/>
       <c r="AF594" s="151"/>
     </row>
-    <row r="595" spans="1:32" ht="16" hidden="1">
+    <row r="595" spans="1:32" ht="16">
       <c r="A595" s="140">
         <v>588</v>
       </c>
@@ -51029,7 +51028,7 @@
       <c r="AE596" s="151"/>
       <c r="AF596" s="151"/>
     </row>
-    <row r="597" spans="1:32" ht="16" hidden="1">
+    <row r="597" spans="1:32" ht="16">
       <c r="A597" s="140">
         <v>590</v>
       </c>
@@ -51095,7 +51094,7 @@
       <c r="AE597" s="151"/>
       <c r="AF597" s="151"/>
     </row>
-    <row r="598" spans="1:32" ht="16" hidden="1">
+    <row r="598" spans="1:32" ht="16">
       <c r="A598" s="140">
         <v>591</v>
       </c>
@@ -51163,7 +51162,7 @@
       <c r="AE598" s="151"/>
       <c r="AF598" s="151"/>
     </row>
-    <row r="599" spans="1:32" ht="16" hidden="1">
+    <row r="599" spans="1:32" ht="16">
       <c r="A599" s="140">
         <v>592</v>
       </c>
@@ -51233,7 +51232,7 @@
       <c r="AE599" s="151"/>
       <c r="AF599" s="151"/>
     </row>
-    <row r="600" spans="1:32" ht="16" hidden="1">
+    <row r="600" spans="1:32" ht="16">
       <c r="A600" s="140">
         <v>593</v>
       </c>
@@ -51301,7 +51300,7 @@
       <c r="AE600" s="151"/>
       <c r="AF600" s="151"/>
     </row>
-    <row r="601" spans="1:32" ht="16" hidden="1">
+    <row r="601" spans="1:32" ht="16">
       <c r="A601" s="140">
         <v>594</v>
       </c>
@@ -51439,7 +51438,7 @@
       <c r="AE602" s="151"/>
       <c r="AF602" s="151"/>
     </row>
-    <row r="603" spans="1:32" ht="16" hidden="1">
+    <row r="603" spans="1:32" ht="16">
       <c r="A603" s="140">
         <v>596</v>
       </c>
@@ -51507,7 +51506,7 @@
       <c r="AE603" s="151"/>
       <c r="AF603" s="151"/>
     </row>
-    <row r="604" spans="1:32" ht="16" hidden="1">
+    <row r="604" spans="1:32" ht="16">
       <c r="A604" s="140">
         <v>597</v>
       </c>
@@ -51575,7 +51574,7 @@
       <c r="AE604" s="151"/>
       <c r="AF604" s="151"/>
     </row>
-    <row r="605" spans="1:32" ht="16" hidden="1">
+    <row r="605" spans="1:32" ht="16">
       <c r="A605" s="140">
         <v>598</v>
       </c>
@@ -51643,7 +51642,7 @@
       <c r="AE605" s="151"/>
       <c r="AF605" s="151"/>
     </row>
-    <row r="606" spans="1:32" ht="16" hidden="1">
+    <row r="606" spans="1:32" ht="16">
       <c r="A606" s="140">
         <v>599</v>
       </c>
@@ -51711,7 +51710,7 @@
       <c r="AE606" s="151"/>
       <c r="AF606" s="151"/>
     </row>
-    <row r="607" spans="1:32" ht="16" hidden="1">
+    <row r="607" spans="1:32" ht="16">
       <c r="A607" s="140">
         <v>600</v>
       </c>
@@ -51779,7 +51778,7 @@
       <c r="AE607" s="151"/>
       <c r="AF607" s="151"/>
     </row>
-    <row r="608" spans="1:32" ht="16" hidden="1">
+    <row r="608" spans="1:32" ht="16">
       <c r="A608" s="140">
         <v>601</v>
       </c>
@@ -51843,7 +51842,7 @@
       <c r="AE608" s="151"/>
       <c r="AF608" s="151"/>
     </row>
-    <row r="609" spans="1:32" ht="16" hidden="1">
+    <row r="609" spans="1:32" ht="16">
       <c r="A609" s="140">
         <v>602</v>
       </c>
@@ -51909,7 +51908,7 @@
       <c r="AE609" s="151"/>
       <c r="AF609" s="151"/>
     </row>
-    <row r="610" spans="1:32" ht="16" hidden="1">
+    <row r="610" spans="1:32" ht="16">
       <c r="A610" s="140">
         <v>603</v>
       </c>
@@ -51976,7 +51975,7 @@
       <c r="AE610" s="151"/>
       <c r="AF610" s="151"/>
     </row>
-    <row r="611" spans="1:32" ht="16" hidden="1">
+    <row r="611" spans="1:32" ht="16">
       <c r="A611" s="140">
         <v>604</v>
       </c>
@@ -52036,7 +52035,7 @@
       <c r="AE611" s="151"/>
       <c r="AF611" s="151"/>
     </row>
-    <row r="612" spans="1:32" ht="16" hidden="1">
+    <row r="612" spans="1:32" ht="16">
       <c r="A612" s="140">
         <v>605</v>
       </c>
@@ -52096,7 +52095,7 @@
       <c r="AE612" s="151"/>
       <c r="AF612" s="151"/>
     </row>
-    <row r="613" spans="1:32" ht="16" hidden="1">
+    <row r="613" spans="1:32" ht="16">
       <c r="A613" s="140">
         <v>606</v>
       </c>
@@ -52156,7 +52155,7 @@
       <c r="AE613" s="151"/>
       <c r="AF613" s="151"/>
     </row>
-    <row r="614" spans="1:32" ht="16" hidden="1">
+    <row r="614" spans="1:32" ht="16">
       <c r="A614" s="140">
         <v>607</v>
       </c>
@@ -52216,7 +52215,7 @@
       <c r="AE614" s="151"/>
       <c r="AF614" s="151"/>
     </row>
-    <row r="615" spans="1:32" ht="16" hidden="1">
+    <row r="615" spans="1:32" ht="16">
       <c r="A615" s="140">
         <v>608</v>
       </c>
@@ -52276,7 +52275,7 @@
       <c r="AE615" s="151"/>
       <c r="AF615" s="151"/>
     </row>
-    <row r="616" spans="1:32" ht="16" hidden="1">
+    <row r="616" spans="1:32" ht="16">
       <c r="A616" s="140">
         <v>609</v>
       </c>
@@ -52336,7 +52335,7 @@
       <c r="AE616" s="151"/>
       <c r="AF616" s="151"/>
     </row>
-    <row r="617" spans="1:32" ht="16" hidden="1">
+    <row r="617" spans="1:32" ht="16">
       <c r="A617" s="140">
         <v>610</v>
       </c>
@@ -52396,7 +52395,7 @@
       <c r="AE617" s="151"/>
       <c r="AF617" s="151"/>
     </row>
-    <row r="618" spans="1:32" ht="16" hidden="1">
+    <row r="618" spans="1:32" ht="16">
       <c r="A618" s="140">
         <v>611</v>
       </c>
@@ -52456,7 +52455,7 @@
       <c r="AE618" s="151"/>
       <c r="AF618" s="151"/>
     </row>
-    <row r="619" spans="1:32" ht="16" hidden="1">
+    <row r="619" spans="1:32" ht="16">
       <c r="A619" s="140">
         <v>612</v>
       </c>
@@ -52516,7 +52515,7 @@
       <c r="AE619" s="151"/>
       <c r="AF619" s="151"/>
     </row>
-    <row r="620" spans="1:32" ht="16" hidden="1">
+    <row r="620" spans="1:32" ht="16">
       <c r="A620" s="140">
         <v>613</v>
       </c>
@@ -52576,7 +52575,7 @@
       <c r="AE620" s="151"/>
       <c r="AF620" s="151"/>
     </row>
-    <row r="621" spans="1:32" ht="16" hidden="1">
+    <row r="621" spans="1:32" ht="16">
       <c r="A621" s="140">
         <v>614</v>
       </c>
@@ -52636,7 +52635,7 @@
       <c r="AE621" s="151"/>
       <c r="AF621" s="151"/>
     </row>
-    <row r="622" spans="1:32" ht="16" hidden="1">
+    <row r="622" spans="1:32" ht="16">
       <c r="A622" s="140">
         <v>615</v>
       </c>
@@ -52696,7 +52695,7 @@
       <c r="AE622" s="151"/>
       <c r="AF622" s="151"/>
     </row>
-    <row r="623" spans="1:32" ht="16" hidden="1">
+    <row r="623" spans="1:32" ht="16">
       <c r="A623" s="140">
         <v>616</v>
       </c>
@@ -52756,7 +52755,7 @@
       <c r="AE623" s="151"/>
       <c r="AF623" s="151"/>
     </row>
-    <row r="624" spans="1:32" ht="16" hidden="1">
+    <row r="624" spans="1:32" ht="16">
       <c r="A624" s="140">
         <v>617</v>
       </c>
@@ -52816,7 +52815,7 @@
       <c r="AE624" s="151"/>
       <c r="AF624" s="151"/>
     </row>
-    <row r="625" spans="1:32" ht="16" hidden="1">
+    <row r="625" spans="1:32" ht="16">
       <c r="A625" s="140">
         <v>618</v>
       </c>
@@ -52876,7 +52875,7 @@
       <c r="AE625" s="151"/>
       <c r="AF625" s="151"/>
     </row>
-    <row r="626" spans="1:32" ht="16" hidden="1">
+    <row r="626" spans="1:32" ht="16">
       <c r="A626" s="140">
         <v>619</v>
       </c>
@@ -52936,7 +52935,7 @@
       <c r="AE626" s="151"/>
       <c r="AF626" s="151"/>
     </row>
-    <row r="627" spans="1:32" ht="16" hidden="1">
+    <row r="627" spans="1:32" ht="16">
       <c r="A627" s="140">
         <v>620</v>
       </c>
@@ -53027,20 +53026,38 @@
       <c r="AB629" s="215"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:AF627" xr:uid="{7EF80393-F544-F942-98FC-FB8C6FF61C18}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="South"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Detected case"/>
-        <filter val="Domestic case"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A7:AF627" xr:uid="{7EF80393-F544-F942-98FC-FB8C6FF61C18}"/>
   <mergeCells count="46">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="AD456:AD457"/>
     <mergeCell ref="AE456:AE457"/>
@@ -53057,36 +53074,6 @@
     <mergeCell ref="AF108:AF111"/>
     <mergeCell ref="AE29:AE30"/>
     <mergeCell ref="AD29:AD30"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="W3:W6"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AD6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="AC3:AC6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
